--- a/Process_Design/T=800K,P=6atm.xlsx
+++ b/Process_Design/T=800K,P=6atm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Economic Potential 2</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Length(ft)</t>
   </si>
   <si>
+    <t>Fc</t>
+  </si>
+  <si>
     <t>installation_cost</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>annual_capital_investment</t>
+  </si>
+  <si>
+    <t>reactor_volume</t>
   </si>
   <si>
     <t>catalyst_cost</t>
@@ -76,10 +82,28 @@
     <t>Reactor_Heating_Cost</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TLM</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
     <t>annual_reactor_heating_cost</t>
   </si>
   <si>
     <t>Water_Cost</t>
+  </si>
+  <si>
+    <t>Reactor Q</t>
+  </si>
+  <si>
+    <t>delta_temp</t>
+  </si>
+  <si>
+    <t>price_coolingwater</t>
   </si>
   <si>
     <t>volume_flowrate</t>
@@ -91,6 +115,12 @@
     <t>Furnace_Cost</t>
   </si>
   <si>
+    <t>Furnace Heat Duty</t>
+  </si>
+  <si>
+    <t>price_fuel</t>
+  </si>
+  <si>
     <t>annual_operating_cost</t>
   </si>
   <si>
@@ -98,6 +128,15 @@
   </si>
   <si>
     <t>Pump_Cost</t>
+  </si>
+  <si>
+    <t>pressure drop</t>
+  </si>
+  <si>
+    <t>shaft work</t>
+  </si>
+  <si>
+    <t>price_electricity</t>
   </si>
   <si>
     <t>annual_pump_cost</t>
@@ -467,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB31"/>
+  <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,106 +577,151 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>31</v>
+      <c r="BQ1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:69">
       <c r="B2">
         <v>0.0584257433</v>
       </c>
@@ -675,112 +759,157 @@
         <v>16.0769</v>
       </c>
       <c r="O2">
+        <v>2.3625</v>
+      </c>
+      <c r="P2">
         <v>45520.26387640153</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>95410.47308493761</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>31803.49102831254</v>
       </c>
-      <c r="R2">
+      <c r="S2">
+        <v>0.9240130852554639</v>
+      </c>
+      <c r="T2">
         <v>732.3265707192181</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>62171.47449335029</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>93974.96552166282</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.0584257433</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>113.565</v>
+      </c>
+      <c r="Z2">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA2">
+        <v>456.1095377428837</v>
+      </c>
+      <c r="AB2">
+        <v>3.7935</v>
+      </c>
+      <c r="AC2">
         <v>211969.0149286507</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>443015.2412008799</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>147671.74706696</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <v>147671.74706696</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>0.0584257433</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
+        <v>-2.41538426</v>
+      </c>
+      <c r="AJ2">
+        <v>20</v>
+      </c>
+      <c r="AK2">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL2">
         <v>846692.0031772722</v>
       </c>
-      <c r="AD2">
+      <c r="AM2">
         <v>6875.139065799449</v>
       </c>
-      <c r="AF2">
+      <c r="AO2">
         <v>0.0584257433</v>
       </c>
-      <c r="AG2">
+      <c r="AP2">
+        <v>448.0539640024896</v>
+      </c>
+      <c r="AQ2">
+        <v>1.75</v>
+      </c>
+      <c r="AR2">
+        <v>19217251.31971211</v>
+      </c>
+      <c r="AS2">
+        <v>40164055.25819831</v>
+      </c>
+      <c r="AT2">
+        <v>13388018.41939944</v>
+      </c>
+      <c r="AU2">
+        <v>3.8</v>
+      </c>
+      <c r="AV2">
         <v>13876231.2651571</v>
       </c>
-      <c r="AH2">
-        <v>19217251.31971211</v>
-      </c>
-      <c r="AI2">
-        <v>40164055.25819831</v>
-      </c>
-      <c r="AJ2">
-        <v>13388018.41939944</v>
-      </c>
-      <c r="AK2">
+      <c r="AW2">
         <v>27264249.68455654</v>
       </c>
-      <c r="AM2">
+      <c r="AY2">
         <v>0.0584257433</v>
       </c>
-      <c r="AN2">
+      <c r="AZ2">
+        <v>506625</v>
+      </c>
+      <c r="BA2">
+        <v>49274.44099338945</v>
+      </c>
+      <c r="BB2">
+        <v>31620.16148249319</v>
+      </c>
+      <c r="BC2">
+        <v>66086.13749841075</v>
+      </c>
+      <c r="BD2">
+        <v>22028.71249947025</v>
+      </c>
+      <c r="BE2">
+        <v>0.035</v>
+      </c>
+      <c r="BF2">
         <v>18848.77872249476</v>
       </c>
-      <c r="AO2">
-        <v>31620.16148249319</v>
-      </c>
-      <c r="AP2">
-        <v>66086.13749841075</v>
-      </c>
-      <c r="AQ2">
-        <v>22028.71249947025</v>
-      </c>
-      <c r="AR2">
+      <c r="BG2">
         <v>40877.49122196501</v>
       </c>
-      <c r="AT2">
+      <c r="BI2">
         <v>0.0584257433</v>
       </c>
-      <c r="AU2">
+      <c r="BJ2">
         <v>0.9125113671320584</v>
       </c>
-      <c r="AV2">
+      <c r="BK2">
         <v>93974.96552166282</v>
       </c>
-      <c r="AW2">
+      <c r="BL2">
         <v>147671.74706696</v>
       </c>
-      <c r="AX2">
+      <c r="BM2">
         <v>27264249.68455654</v>
       </c>
-      <c r="AY2">
+      <c r="BN2">
         <v>40877.49122196501</v>
       </c>
-      <c r="AZ2">
+      <c r="BO2">
         <v>6875.139065799449</v>
       </c>
-      <c r="BA2">
+      <c r="BP2">
         <v>68078312.09664692</v>
       </c>
-      <c r="BB2">
+      <c r="BQ2">
         <v>40524663.06921399</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:69">
       <c r="B3">
         <v>0.0985024302</v>
       </c>
@@ -818,112 +947,157 @@
         <v>16.90426196122</v>
       </c>
       <c r="O3">
+        <v>2.3625</v>
+      </c>
+      <c r="P3">
         <v>49993.75796497118</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>104786.9166945796</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>34928.97223152652</v>
       </c>
-      <c r="R3">
+      <c r="S3">
+        <v>1.074137386582572</v>
+      </c>
+      <c r="T3">
         <v>851.3075857360172</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>72272.4669140473</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>107201.4391455738</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.0985024302</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>113.565</v>
+      </c>
+      <c r="Z3">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA3">
+        <v>473.5940180604169</v>
+      </c>
+      <c r="AB3">
+        <v>3.7935</v>
+      </c>
+      <c r="AC3">
         <v>217215.8273827925</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <v>453981.0792300362</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <v>151327.0264100121</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <v>151327.0264100121</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
         <v>0.0985024302</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
+        <v>-2.50797548</v>
+      </c>
+      <c r="AJ3">
+        <v>20</v>
+      </c>
+      <c r="AK3">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL3">
         <v>879149.0522839957</v>
       </c>
-      <c r="AD3">
+      <c r="AM3">
         <v>7138.690304546044</v>
       </c>
-      <c r="AF3">
+      <c r="AO3">
         <v>0.0985024302</v>
       </c>
-      <c r="AG3">
+      <c r="AP3">
+        <v>275.8752150716145</v>
+      </c>
+      <c r="AQ3">
+        <v>1.75</v>
+      </c>
+      <c r="AR3">
+        <v>12725248.63010257</v>
+      </c>
+      <c r="AS3">
+        <v>26595769.63691437</v>
+      </c>
+      <c r="AT3">
+        <v>8865256.545638122</v>
+      </c>
+      <c r="AU3">
+        <v>3.8</v>
+      </c>
+      <c r="AV3">
         <v>8543855.4107679</v>
       </c>
-      <c r="AH3">
-        <v>12725248.63010257</v>
-      </c>
-      <c r="AI3">
-        <v>26595769.63691437</v>
-      </c>
-      <c r="AJ3">
-        <v>8865256.545638122</v>
-      </c>
-      <c r="AK3">
+      <c r="AW3">
         <v>17409111.95640602</v>
       </c>
-      <c r="AM3">
+      <c r="AY3">
         <v>0.0985024302</v>
       </c>
-      <c r="AN3">
+      <c r="AZ3">
+        <v>506625</v>
+      </c>
+      <c r="BA3">
+        <v>30343.25670337785</v>
+      </c>
+      <c r="BB3">
+        <v>23285.76681034106</v>
+      </c>
+      <c r="BC3">
+        <v>48667.25263361281</v>
+      </c>
+      <c r="BD3">
+        <v>16222.4175445376</v>
+      </c>
+      <c r="BE3">
+        <v>0.035</v>
+      </c>
+      <c r="BF3">
         <v>11607.09933570945</v>
       </c>
-      <c r="AO3">
-        <v>23285.76681034106</v>
-      </c>
-      <c r="AP3">
-        <v>48667.25263361281</v>
-      </c>
-      <c r="AQ3">
-        <v>16222.4175445376</v>
-      </c>
-      <c r="AR3">
+      <c r="BG3">
         <v>27829.51688024705</v>
       </c>
-      <c r="AT3">
+      <c r="BI3">
         <v>0.0985024302</v>
       </c>
-      <c r="AU3">
+      <c r="BJ3">
         <v>0.8800051414187788</v>
       </c>
-      <c r="AV3">
+      <c r="BK3">
         <v>107201.4391455738</v>
       </c>
-      <c r="AW3">
+      <c r="BL3">
         <v>151327.0264100121</v>
       </c>
-      <c r="AX3">
+      <c r="BM3">
         <v>17409111.95640602</v>
       </c>
-      <c r="AY3">
+      <c r="BN3">
         <v>27829.51688024705</v>
       </c>
-      <c r="AZ3">
+      <c r="BO3">
         <v>7138.690304546044</v>
       </c>
-      <c r="BA3">
+      <c r="BP3">
         <v>67342042.29089758</v>
       </c>
-      <c r="BB3">
+      <c r="BQ3">
         <v>49639433.66175117</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:69">
       <c r="B4">
         <v>0.131327294</v>
       </c>
@@ -961,112 +1135,157 @@
         <v>17.77420227969</v>
       </c>
       <c r="O4">
+        <v>2.3625</v>
+      </c>
+      <c r="P4">
         <v>54906.88378114803</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>115084.8284052863</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>38361.60946842875</v>
       </c>
-      <c r="R4">
+      <c r="S4">
+        <v>1.248652368464023</v>
+      </c>
+      <c r="T4">
         <v>989.6194346261614</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>84014.56658545016</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>122376.1760538789</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.131327294</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>113.565</v>
+      </c>
+      <c r="Z4">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA4">
+        <v>493.1427313380849</v>
+      </c>
+      <c r="AB4">
+        <v>3.7935</v>
+      </c>
+      <c r="AC4">
         <v>223002.4554662122</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>466075.1319243835</v>
       </c>
-      <c r="Y4">
+      <c r="AE4">
         <v>155358.3773081278</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <v>155358.3773081278</v>
       </c>
-      <c r="AB4">
+      <c r="AH4">
         <v>0.131327294</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
+        <v>-2.6114981</v>
+      </c>
+      <c r="AJ4">
+        <v>20</v>
+      </c>
+      <c r="AK4">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL4">
         <v>915438.0088502521</v>
       </c>
-      <c r="AD4">
+      <c r="AM4">
         <v>7433.356631864047</v>
       </c>
-      <c r="AF4">
+      <c r="AO4">
         <v>0.131327294</v>
       </c>
-      <c r="AG4">
+      <c r="AP4">
+        <v>215.4947025297399</v>
+      </c>
+      <c r="AQ4">
+        <v>1.75</v>
+      </c>
+      <c r="AR4">
+        <v>10315293.82537688</v>
+      </c>
+      <c r="AS4">
+        <v>21558964.09503768</v>
+      </c>
+      <c r="AT4">
+        <v>7186321.365012561</v>
+      </c>
+      <c r="AU4">
+        <v>3.8</v>
+      </c>
+      <c r="AV4">
         <v>6673870.937346045</v>
       </c>
-      <c r="AH4">
-        <v>10315293.82537688</v>
-      </c>
-      <c r="AI4">
-        <v>21558964.09503768</v>
-      </c>
-      <c r="AJ4">
-        <v>7186321.365012561</v>
-      </c>
-      <c r="AK4">
+      <c r="AW4">
         <v>13860192.3023586</v>
       </c>
-      <c r="AM4">
+      <c r="AY4">
         <v>0.131327294</v>
       </c>
-      <c r="AN4">
+      <c r="AZ4">
+        <v>506625</v>
+      </c>
+      <c r="BA4">
+        <v>23704.67809406593</v>
+      </c>
+      <c r="BB4">
+        <v>19886.86617920562</v>
+      </c>
+      <c r="BC4">
+        <v>41563.55031453974</v>
+      </c>
+      <c r="BD4">
+        <v>13854.51677151324</v>
+      </c>
+      <c r="BE4">
+        <v>0.035</v>
+      </c>
+      <c r="BF4">
         <v>9067.667193686879</v>
       </c>
-      <c r="AO4">
-        <v>19886.86617920562</v>
-      </c>
-      <c r="AP4">
-        <v>41563.55031453974</v>
-      </c>
-      <c r="AQ4">
-        <v>13854.51677151324</v>
-      </c>
-      <c r="AR4">
+      <c r="BG4">
         <v>22922.18396520012</v>
       </c>
-      <c r="AT4">
+      <c r="BI4">
         <v>0.131327294</v>
       </c>
-      <c r="AU4">
+      <c r="BJ4">
         <v>0.8458195706543105</v>
       </c>
-      <c r="AV4">
+      <c r="BK4">
         <v>122376.1760538789</v>
       </c>
-      <c r="AW4">
+      <c r="BL4">
         <v>155358.3773081278</v>
       </c>
-      <c r="AX4">
+      <c r="BM4">
         <v>13860192.3023586</v>
       </c>
-      <c r="AY4">
+      <c r="BN4">
         <v>22922.18396520012</v>
       </c>
-      <c r="AZ4">
+      <c r="BO4">
         <v>7433.356631864047</v>
       </c>
-      <c r="BA4">
+      <c r="BP4">
         <v>66501134.80082282</v>
       </c>
-      <c r="BB4">
+      <c r="BQ4">
         <v>52332852.40450513</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:69">
       <c r="B5">
         <v>0.158110503</v>
       </c>
@@ -1104,112 +1323,157 @@
         <v>18.68891213845</v>
       </c>
       <c r="O5">
+        <v>2.3625</v>
+      </c>
+      <c r="P5">
         <v>60302.84593761269</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>126394.7650852362</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>42131.5883617454</v>
       </c>
-      <c r="R5">
+      <c r="S5">
+        <v>1.451520778401962</v>
+      </c>
+      <c r="T5">
         <v>1150.402792922476</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>97664.40377414766</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>139795.9921358931</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.158110503</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
+        <v>113.565</v>
+      </c>
+      <c r="Z5">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA5">
+        <v>515.0961341990845</v>
+      </c>
+      <c r="AB5">
+        <v>3.7935</v>
+      </c>
+      <c r="AC5">
         <v>229406.0252866029</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
         <v>479458.5928489999</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>159819.5309496666</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>159819.5309496666</v>
       </c>
-      <c r="AB5">
+      <c r="AH5">
         <v>0.158110503</v>
       </c>
-      <c r="AC5">
+      <c r="AI5">
+        <v>-2.72775505</v>
+      </c>
+      <c r="AJ5">
+        <v>20</v>
+      </c>
+      <c r="AK5">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL5">
         <v>956190.874350328</v>
       </c>
-      <c r="AD5">
+      <c r="AM5">
         <v>7764.269899724663</v>
       </c>
-      <c r="AF5">
+      <c r="AO5">
         <v>0.158110503</v>
       </c>
-      <c r="AG5">
+      <c r="AP5">
+        <v>186.9946717556406</v>
+      </c>
+      <c r="AQ5">
+        <v>1.75</v>
+      </c>
+      <c r="AR5">
+        <v>9143560.473159399</v>
+      </c>
+      <c r="AS5">
+        <v>19110041.38890314</v>
+      </c>
+      <c r="AT5">
+        <v>6370013.796301046</v>
+      </c>
+      <c r="AU5">
+        <v>3.8</v>
+      </c>
+      <c r="AV5">
         <v>5791224.984272188</v>
       </c>
-      <c r="AH5">
-        <v>9143560.473159399</v>
-      </c>
-      <c r="AI5">
-        <v>19110041.38890314</v>
-      </c>
-      <c r="AJ5">
-        <v>6370013.796301046</v>
-      </c>
-      <c r="AK5">
+      <c r="AW5">
         <v>12161238.78057323</v>
       </c>
-      <c r="AM5">
+      <c r="AY5">
         <v>0.158110503</v>
       </c>
-      <c r="AN5">
+      <c r="AZ5">
+        <v>506625</v>
+      </c>
+      <c r="BA5">
+        <v>20576.68688160592</v>
+      </c>
+      <c r="BB5">
+        <v>18154.10035768776</v>
+      </c>
+      <c r="BC5">
+        <v>37942.06974756742</v>
+      </c>
+      <c r="BD5">
+        <v>12647.35658252247</v>
+      </c>
+      <c r="BE5">
+        <v>0.035</v>
+      </c>
+      <c r="BF5">
         <v>7871.127709505281</v>
       </c>
-      <c r="AO5">
-        <v>18154.10035768776</v>
-      </c>
-      <c r="AP5">
-        <v>37942.06974756742</v>
-      </c>
-      <c r="AQ5">
-        <v>12647.35658252247</v>
-      </c>
-      <c r="AR5">
+      <c r="BG5">
         <v>20518.48429202775</v>
       </c>
-      <c r="AT5">
+      <c r="BI5">
         <v>0.158110503</v>
       </c>
-      <c r="AU5">
+      <c r="BJ5">
         <v>0.8101140451095624</v>
       </c>
-      <c r="AV5">
+      <c r="BK5">
         <v>139795.9921358931</v>
       </c>
-      <c r="AW5">
+      <c r="BL5">
         <v>159819.5309496666</v>
       </c>
-      <c r="AX5">
+      <c r="BM5">
         <v>12161238.78057323</v>
       </c>
-      <c r="AY5">
+      <c r="BN5">
         <v>20518.48429202775</v>
       </c>
-      <c r="AZ5">
+      <c r="BO5">
         <v>7764.269899724663</v>
       </c>
-      <c r="BA5">
+      <c r="BP5">
         <v>65561341.82639316</v>
       </c>
-      <c r="BB5">
+      <c r="BQ5">
         <v>53072204.76854262</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:69">
       <c r="B6">
         <v>0.18014869</v>
       </c>
@@ -1247,112 +1511,157 @@
         <v>19.65069552132</v>
       </c>
       <c r="O6">
+        <v>2.3625</v>
+      </c>
+      <c r="P6">
         <v>66229.09518647236</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>138816.1835108461</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>46272.06117028202</v>
       </c>
-      <c r="R6">
+      <c r="S6">
+        <v>1.687349199196333</v>
+      </c>
+      <c r="T6">
         <v>1337.308607823054</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>113531.928684978</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>159803.98985526</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.18014869</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
+        <v>113.565</v>
+      </c>
+      <c r="Z6">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA6">
+        <v>539.7115995611589</v>
+      </c>
+      <c r="AB6">
+        <v>3.7935</v>
+      </c>
+      <c r="AC6">
         <v>236473.5495697713</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>494229.7186008219</v>
       </c>
-      <c r="Y6">
+      <c r="AE6">
         <v>164743.2395336073</v>
       </c>
-      <c r="Z6">
+      <c r="AF6">
         <v>164743.2395336073</v>
       </c>
-      <c r="AB6">
+      <c r="AH6">
         <v>0.18014869</v>
       </c>
-      <c r="AC6">
+      <c r="AI6">
+        <v>-2.85810928</v>
+      </c>
+      <c r="AJ6">
+        <v>20</v>
+      </c>
+      <c r="AK6">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL6">
         <v>1001885.419085554</v>
       </c>
-      <c r="AD6">
+      <c r="AM6">
         <v>8135.309602974697</v>
       </c>
-      <c r="AF6">
+      <c r="AO6">
         <v>0.18014869</v>
       </c>
-      <c r="AG6">
+      <c r="AP6">
+        <v>171.9884640302679</v>
+      </c>
+      <c r="AQ6">
+        <v>1.75</v>
+      </c>
+      <c r="AR6">
+        <v>8515985.527957939</v>
+      </c>
+      <c r="AS6">
+        <v>17798409.75343209</v>
+      </c>
+      <c r="AT6">
+        <v>5932803.25114403</v>
+      </c>
+      <c r="AU6">
+        <v>3.8</v>
+      </c>
+      <c r="AV6">
         <v>5326482.731017397</v>
       </c>
-      <c r="AH6">
-        <v>8515985.527957939</v>
-      </c>
-      <c r="AI6">
-        <v>17798409.75343209</v>
-      </c>
-      <c r="AJ6">
-        <v>5932803.25114403</v>
-      </c>
-      <c r="AK6">
+      <c r="AW6">
         <v>11259285.98216143</v>
       </c>
-      <c r="AM6">
+      <c r="AY6">
         <v>0.18014869</v>
       </c>
-      <c r="AN6">
+      <c r="AZ6">
+        <v>506625</v>
+      </c>
+      <c r="BA6">
+        <v>18939.68059659026</v>
+      </c>
+      <c r="BB6">
+        <v>17205.31217271279</v>
+      </c>
+      <c r="BC6">
+        <v>35959.10244096973</v>
+      </c>
+      <c r="BD6">
+        <v>11986.36748032324</v>
+      </c>
+      <c r="BE6">
+        <v>0.035</v>
+      </c>
+      <c r="BF6">
         <v>7244.929449077874</v>
       </c>
-      <c r="AO6">
-        <v>17205.31217271279</v>
-      </c>
-      <c r="AP6">
-        <v>35959.10244096973</v>
-      </c>
-      <c r="AQ6">
-        <v>11986.36748032324</v>
-      </c>
-      <c r="AR6">
+      <c r="BG6">
         <v>19231.29692940112</v>
       </c>
-      <c r="AT6">
+      <c r="BI6">
         <v>0.18014869</v>
       </c>
-      <c r="AU6">
+      <c r="BJ6">
         <v>0.7731464939561278</v>
       </c>
-      <c r="AV6">
+      <c r="BK6">
         <v>159803.98985526</v>
       </c>
-      <c r="AW6">
+      <c r="BL6">
         <v>164743.2395336073</v>
       </c>
-      <c r="AX6">
+      <c r="BM6">
         <v>11259285.98216143</v>
       </c>
-      <c r="AY6">
+      <c r="BN6">
         <v>19231.29692940112</v>
       </c>
-      <c r="AZ6">
+      <c r="BO6">
         <v>8135.309602974697</v>
       </c>
-      <c r="BA6">
+      <c r="BP6">
         <v>64512677.97476854</v>
       </c>
-      <c r="BB6">
+      <c r="BQ6">
         <v>52901478.15668587</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:69">
       <c r="B7">
         <v>0.198489527</v>
       </c>
@@ -1390,112 +1699,157 @@
         <v>20.66197492184</v>
       </c>
       <c r="O7">
+        <v>2.3625</v>
+      </c>
+      <c r="P7">
         <v>72737.74511531046</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>152458.3137616907</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>50819.43792056358</v>
       </c>
-      <c r="R7">
+      <c r="S7">
+        <v>1.961492629121189</v>
+      </c>
+      <c r="T7">
         <v>1554.580983209999</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>131977.4480537655</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>182796.8859743291</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.198489527</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
+        <v>113.565</v>
+      </c>
+      <c r="Z7">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA7">
+        <v>567.2949497859082</v>
+      </c>
+      <c r="AB7">
+        <v>3.7935</v>
+      </c>
+      <c r="AC7">
         <v>244260.4921489441</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>510504.4285912932</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>170168.1428637644</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>170168.1428637644</v>
       </c>
-      <c r="AB7">
+      <c r="AH7">
         <v>0.198489527</v>
       </c>
-      <c r="AC7">
+      <c r="AI7">
+        <v>-3.00418031</v>
+      </c>
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL7">
         <v>1053089.351745473</v>
       </c>
-      <c r="AD7">
+      <c r="AM7">
         <v>8551.085536173239</v>
       </c>
-      <c r="AF7">
+      <c r="AO7">
         <v>0.198489527</v>
       </c>
-      <c r="AG7">
+      <c r="AP7">
+        <v>164.1648948994371</v>
+      </c>
+      <c r="AQ7">
+        <v>1.75</v>
+      </c>
+      <c r="AR7">
+        <v>8185566.544965506</v>
+      </c>
+      <c r="AS7">
+        <v>17107834.07897791</v>
+      </c>
+      <c r="AT7">
+        <v>5702611.359659301</v>
+      </c>
+      <c r="AU7">
+        <v>3.8</v>
+      </c>
+      <c r="AV7">
         <v>5084186.795035565</v>
       </c>
-      <c r="AH7">
-        <v>8185566.544965506</v>
-      </c>
-      <c r="AI7">
-        <v>17107834.07897791</v>
-      </c>
-      <c r="AJ7">
-        <v>5702611.359659301</v>
-      </c>
-      <c r="AK7">
+      <c r="AW7">
         <v>10786798.15469487</v>
       </c>
-      <c r="AM7">
+      <c r="AY7">
         <v>0.198489527</v>
       </c>
-      <c r="AN7">
+      <c r="AZ7">
+        <v>506625</v>
+      </c>
+      <c r="BA7">
+        <v>18091.98023624569</v>
+      </c>
+      <c r="BB7">
+        <v>16701.12190450905</v>
+      </c>
+      <c r="BC7">
+        <v>34905.34478042391</v>
+      </c>
+      <c r="BD7">
+        <v>11635.11492680797</v>
+      </c>
+      <c r="BE7">
+        <v>0.035</v>
+      </c>
+      <c r="BF7">
         <v>6920.661609747999</v>
       </c>
-      <c r="AO7">
-        <v>16701.12190450905</v>
-      </c>
-      <c r="AP7">
-        <v>34905.34478042391</v>
-      </c>
-      <c r="AQ7">
-        <v>11635.11492680797</v>
-      </c>
-      <c r="AR7">
+      <c r="BG7">
         <v>18555.77653655597</v>
       </c>
-      <c r="AT7">
+      <c r="BI7">
         <v>0.198489527</v>
       </c>
-      <c r="AU7">
+      <c r="BJ7">
         <v>0.7351526863747327</v>
       </c>
-      <c r="AV7">
+      <c r="BK7">
         <v>182796.8859743291</v>
       </c>
-      <c r="AW7">
+      <c r="BL7">
         <v>170168.1428637644</v>
       </c>
-      <c r="AX7">
+      <c r="BM7">
         <v>10786798.15469487</v>
       </c>
-      <c r="AY7">
+      <c r="BN7">
         <v>18555.77653655597</v>
       </c>
-      <c r="AZ7">
+      <c r="BO7">
         <v>8551.085536173239</v>
       </c>
-      <c r="BA7">
+      <c r="BP7">
         <v>63331596.06050701</v>
       </c>
-      <c r="BB7">
+      <c r="BQ7">
         <v>52164726.01490132</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:69">
       <c r="B8">
         <v>0.213704479</v>
       </c>
@@ -1533,112 +1887,157 @@
         <v>21.72529760998</v>
       </c>
       <c r="O8">
+        <v>2.3625</v>
+      </c>
+      <c r="P8">
         <v>79886.03147089851</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>167441.1219630033</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>55813.70732100109</v>
       </c>
-      <c r="R8">
+      <c r="S8">
+        <v>2.28017612289702</v>
+      </c>
+      <c r="T8">
         <v>1807.153586202034</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>153419.8096619435</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>209233.5169829446</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.213704479</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
+        <v>113.565</v>
+      </c>
+      <c r="Z8">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA8">
+        <v>598.1545791701758</v>
+      </c>
+      <c r="AB8">
+        <v>3.7935</v>
+      </c>
+      <c r="AC8">
         <v>252816.9351722536</v>
       </c>
-      <c r="X8">
+      <c r="AD8">
         <v>528387.3945100099</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>176129.1315033366</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>176129.1315033366</v>
       </c>
-      <c r="AB8">
+      <c r="AH8">
         <v>0.213704479</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
+        <v>-3.16760128</v>
+      </c>
+      <c r="AJ8">
+        <v>20</v>
+      </c>
+      <c r="AK8">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL8">
         <v>1110375.155392497</v>
       </c>
-      <c r="AD8">
+      <c r="AM8">
         <v>9016.246261787075</v>
       </c>
-      <c r="AF8">
+      <c r="AO8">
         <v>0.213704479</v>
       </c>
-      <c r="AG8">
+      <c r="AP8">
+        <v>160.9525495447542</v>
+      </c>
+      <c r="AQ8">
+        <v>1.75</v>
+      </c>
+      <c r="AR8">
+        <v>8049217.742758437</v>
+      </c>
+      <c r="AS8">
+        <v>16822865.08236513</v>
+      </c>
+      <c r="AT8">
+        <v>5607621.694121711</v>
+      </c>
+      <c r="AU8">
+        <v>3.8</v>
+      </c>
+      <c r="AV8">
         <v>4984700.459401039</v>
       </c>
-      <c r="AH8">
-        <v>8049217.742758437</v>
-      </c>
-      <c r="AI8">
-        <v>16822865.08236513</v>
-      </c>
-      <c r="AJ8">
-        <v>5607621.694121711</v>
-      </c>
-      <c r="AK8">
+      <c r="AW8">
         <v>10592322.15352275</v>
       </c>
-      <c r="AM8">
+      <c r="AY8">
         <v>0.213704479</v>
       </c>
-      <c r="AN8">
+      <c r="AZ8">
+        <v>506625</v>
+      </c>
+      <c r="BA8">
+        <v>17751.52027735444</v>
+      </c>
+      <c r="BB8">
+        <v>16495.97467528492</v>
+      </c>
+      <c r="BC8">
+        <v>34476.58707134549</v>
+      </c>
+      <c r="BD8">
+        <v>11492.19569044849</v>
+      </c>
+      <c r="BE8">
+        <v>0.035</v>
+      </c>
+      <c r="BF8">
         <v>6790.42665832822</v>
       </c>
-      <c r="AO8">
-        <v>16495.97467528492</v>
-      </c>
-      <c r="AP8">
-        <v>34476.58707134549</v>
-      </c>
-      <c r="AQ8">
-        <v>11492.19569044849</v>
-      </c>
-      <c r="AR8">
+      <c r="BG8">
         <v>18282.62234877671</v>
       </c>
-      <c r="AT8">
+      <c r="BI8">
         <v>0.213704479</v>
       </c>
-      <c r="AU8">
+      <c r="BJ8">
         <v>0.6964646809099001</v>
       </c>
-      <c r="AV8">
+      <c r="BK8">
         <v>209233.5169829446</v>
       </c>
-      <c r="AW8">
+      <c r="BL8">
         <v>176129.1315033366</v>
       </c>
-      <c r="AX8">
+      <c r="BM8">
         <v>10592322.15352275</v>
       </c>
-      <c r="AY8">
+      <c r="BN8">
         <v>18282.62234877671</v>
       </c>
-      <c r="AZ8">
+      <c r="BO8">
         <v>9016.246261787075</v>
       </c>
-      <c r="BA8">
+      <c r="BP8">
         <v>62005839.41058044</v>
       </c>
-      <c r="BB8">
+      <c r="BQ8">
         <v>51000855.73996084</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:69">
       <c r="B9">
         <v>0.226669668</v>
       </c>
@@ -1676,112 +2075,157 @@
         <v>22.84334180042</v>
       </c>
       <c r="O9">
+        <v>2.3625</v>
+      </c>
+      <c r="P9">
         <v>87736.81385181764</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>183896.3618334098</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>61298.78727780326</v>
       </c>
-      <c r="R9">
+      <c r="S9">
+        <v>2.650636075191632</v>
+      </c>
+      <c r="T9">
         <v>2100.761621393129</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>178345.9084828542</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>239644.6957606574</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.226669668</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
+        <v>113.565</v>
+      </c>
+      <c r="Z9">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA9">
+        <v>632.6381691714029</v>
+      </c>
+      <c r="AB9">
+        <v>3.7935</v>
+      </c>
+      <c r="AC9">
         <v>262197.4330277485</v>
       </c>
-      <c r="X9">
+      <c r="AD9">
         <v>547992.6350279944</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>182664.2116759981</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <v>182664.2116759981</v>
       </c>
-      <c r="AB9">
+      <c r="AH9">
         <v>0.226669668</v>
       </c>
-      <c r="AC9">
+      <c r="AI9">
+        <v>-3.35021338</v>
+      </c>
+      <c r="AJ9">
+        <v>20</v>
+      </c>
+      <c r="AK9">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL9">
         <v>1174388.243212075</v>
       </c>
-      <c r="AD9">
+      <c r="AM9">
         <v>9536.032534882052</v>
       </c>
-      <c r="AF9">
+      <c r="AO9">
         <v>0.226669668</v>
       </c>
-      <c r="AG9">
+      <c r="AP9">
+        <v>160.7548780400114</v>
+      </c>
+      <c r="AQ9">
+        <v>1.75</v>
+      </c>
+      <c r="AR9">
+        <v>8040814.269366397</v>
+      </c>
+      <c r="AS9">
+        <v>16805301.82297577</v>
+      </c>
+      <c r="AT9">
+        <v>5601767.274325255</v>
+      </c>
+      <c r="AU9">
+        <v>3.8</v>
+      </c>
+      <c r="AV9">
         <v>4978578.572899152</v>
       </c>
-      <c r="AH9">
-        <v>8040814.269366397</v>
-      </c>
-      <c r="AI9">
-        <v>16805301.82297577</v>
-      </c>
-      <c r="AJ9">
-        <v>5601767.274325255</v>
-      </c>
-      <c r="AK9">
+      <c r="AW9">
         <v>10580345.84722441</v>
       </c>
-      <c r="AM9">
+      <c r="AY9">
         <v>0.226669668</v>
       </c>
-      <c r="AN9">
+      <c r="AZ9">
+        <v>506625</v>
+      </c>
+      <c r="BA9">
+        <v>17743.00766511537</v>
+      </c>
+      <c r="BB9">
+        <v>16490.82525411194</v>
+      </c>
+      <c r="BC9">
+        <v>34465.82478109396</v>
+      </c>
+      <c r="BD9">
+        <v>11488.60826036465</v>
+      </c>
+      <c r="BE9">
+        <v>0.035</v>
+      </c>
+      <c r="BF9">
         <v>6787.170358688694</v>
       </c>
-      <c r="AO9">
-        <v>16490.82525411194</v>
-      </c>
-      <c r="AP9">
-        <v>34465.82478109396</v>
-      </c>
-      <c r="AQ9">
-        <v>11488.60826036465</v>
-      </c>
-      <c r="AR9">
+      <c r="BG9">
         <v>18275.77861905334</v>
       </c>
-      <c r="AT9">
+      <c r="BI9">
         <v>0.226669668</v>
       </c>
-      <c r="AU9">
+      <c r="BJ9">
         <v>0.6572689921460076</v>
       </c>
-      <c r="AV9">
+      <c r="BK9">
         <v>239644.6957606574</v>
       </c>
-      <c r="AW9">
+      <c r="BL9">
         <v>182664.2116759981</v>
       </c>
-      <c r="AX9">
+      <c r="BM9">
         <v>10580345.84722441</v>
       </c>
-      <c r="AY9">
+      <c r="BN9">
         <v>18275.77861905334</v>
       </c>
-      <c r="AZ9">
+      <c r="BO9">
         <v>9536.032534882052</v>
       </c>
-      <c r="BA9">
+      <c r="BP9">
         <v>60512197.3521452</v>
       </c>
-      <c r="BB9">
+      <c r="BQ9">
         <v>49481730.7863302</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:69">
       <c r="B10">
         <v>0.237886197</v>
       </c>
@@ -1819,112 +2263,157 @@
         <v>24.01892367389</v>
       </c>
       <c r="O10">
+        <v>2.3625</v>
+      </c>
+      <c r="P10">
         <v>96359.13032912479</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>201968.7371698456</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>67322.91238994851</v>
       </c>
-      <c r="R10">
+      <c r="S10">
+        <v>3.08128462173402</v>
+      </c>
+      <c r="T10">
         <v>2442.072126955298</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>207321.7482779758</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>274644.6606679243</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.237886197</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
+        <v>113.565</v>
+      </c>
+      <c r="Z10">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA10">
+        <v>671.1406327039333</v>
+      </c>
+      <c r="AB10">
+        <v>3.7935</v>
+      </c>
+      <c r="AC10">
         <v>272462.1805155735</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>569445.9572775485</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>189815.3190925161</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <v>189815.3190925161</v>
       </c>
-      <c r="AB10">
+      <c r="AH10">
         <v>0.237886197</v>
       </c>
-      <c r="AC10">
+      <c r="AI10">
+        <v>-3.55410792</v>
+      </c>
+      <c r="AJ10">
+        <v>20</v>
+      </c>
+      <c r="AK10">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL10">
         <v>1245861.705786312</v>
       </c>
-      <c r="AD10">
+      <c r="AM10">
         <v>10116.39705098485</v>
       </c>
-      <c r="AF10">
+      <c r="AO10">
         <v>0.237886197</v>
       </c>
-      <c r="AG10">
+      <c r="AP10">
+        <v>162.8925485837104</v>
+      </c>
+      <c r="AQ10">
+        <v>1.75</v>
+      </c>
+      <c r="AR10">
+        <v>8131609.787925459</v>
+      </c>
+      <c r="AS10">
+        <v>16995064.45676421</v>
+      </c>
+      <c r="AT10">
+        <v>5665021.485588068</v>
+      </c>
+      <c r="AU10">
+        <v>3.8</v>
+      </c>
+      <c r="AV10">
         <v>5044782.229637511</v>
       </c>
-      <c r="AH10">
-        <v>8131609.787925459</v>
-      </c>
-      <c r="AI10">
-        <v>16995064.45676421</v>
-      </c>
-      <c r="AJ10">
-        <v>5665021.485588068</v>
-      </c>
-      <c r="AK10">
+      <c r="AW10">
         <v>10709803.71522558</v>
       </c>
-      <c r="AM10">
+      <c r="AY10">
         <v>0.237886197</v>
       </c>
-      <c r="AN10">
+      <c r="AZ10">
+        <v>506625</v>
+      </c>
+      <c r="BA10">
+        <v>17992.15759316015</v>
+      </c>
+      <c r="BB10">
+        <v>16641.13410039799</v>
+      </c>
+      <c r="BC10">
+        <v>34779.9702698318</v>
+      </c>
+      <c r="BD10">
+        <v>11593.32342327727</v>
+      </c>
+      <c r="BE10">
+        <v>0.035</v>
+      </c>
+      <c r="BF10">
         <v>6882.476804946939</v>
       </c>
-      <c r="AO10">
-        <v>16641.13410039799</v>
-      </c>
-      <c r="AP10">
-        <v>34779.9702698318</v>
-      </c>
-      <c r="AQ10">
-        <v>11593.32342327727</v>
-      </c>
-      <c r="AR10">
+      <c r="BG10">
         <v>18475.80022822421</v>
       </c>
-      <c r="AT10">
+      <c r="BI10">
         <v>0.237886197</v>
       </c>
-      <c r="AU10">
+      <c r="BJ10">
         <v>0.6181167742638058</v>
       </c>
-      <c r="AV10">
+      <c r="BK10">
         <v>274644.6606679243</v>
       </c>
-      <c r="AW10">
+      <c r="BL10">
         <v>189815.3190925161</v>
       </c>
-      <c r="AX10">
+      <c r="BM10">
         <v>10709803.71522558</v>
       </c>
-      <c r="AY10">
+      <c r="BN10">
         <v>18475.80022822421</v>
       </c>
-      <c r="AZ10">
+      <c r="BO10">
         <v>10116.39705098485</v>
       </c>
-      <c r="BA10">
+      <c r="BP10">
         <v>58866277.15187579</v>
       </c>
-      <c r="BB10">
+      <c r="BQ10">
         <v>47663421.25961056</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:69">
       <c r="B11">
         <v>0.24763674</v>
       </c>
@@ -1962,112 +2451,157 @@
         <v>25.25500426727</v>
       </c>
       <c r="O11">
+        <v>2.3625</v>
+      </c>
+      <c r="P11">
         <v>105828.8031676727</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>221817.1714394421</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>73939.05714648069</v>
       </c>
-      <c r="R11">
+      <c r="S11">
+        <v>3.581900593099313</v>
+      </c>
+      <c r="T11">
         <v>2838.835315060861</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>241005.2897681877</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>314944.3469146684</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.24763674</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>113.565</v>
+      </c>
+      <c r="Z11">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA11">
+        <v>714.079280423608</v>
+      </c>
+      <c r="AB11">
+        <v>3.7935</v>
+      </c>
+      <c r="AC11">
         <v>283669.4797736589</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>592869.2127269469</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>197623.0709089823</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>197623.0709089823</v>
       </c>
-      <c r="AB11">
+      <c r="AH11">
         <v>0.24763674</v>
       </c>
-      <c r="AC11">
+      <c r="AI11">
+        <v>-3.78149482</v>
+      </c>
+      <c r="AJ11">
+        <v>20</v>
+      </c>
+      <c r="AK11">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL11">
         <v>1325570.211404076</v>
       </c>
-      <c r="AD11">
+      <c r="AM11">
         <v>10763.6301166011</v>
       </c>
-      <c r="AF11">
+      <c r="AO11">
         <v>0.24763674</v>
       </c>
-      <c r="AG11">
+      <c r="AP11">
+        <v>167.0097007392475</v>
+      </c>
+      <c r="AQ11">
+        <v>1.75</v>
+      </c>
+      <c r="AR11">
+        <v>8305981.081781362</v>
+      </c>
+      <c r="AS11">
+        <v>17359500.46092305</v>
+      </c>
+      <c r="AT11">
+        <v>5786500.153641015</v>
+      </c>
+      <c r="AU11">
+        <v>3.8</v>
+      </c>
+      <c r="AV11">
         <v>5172290.431894495</v>
       </c>
-      <c r="AH11">
-        <v>8305981.081781362</v>
-      </c>
-      <c r="AI11">
-        <v>17359500.46092305</v>
-      </c>
-      <c r="AJ11">
-        <v>5786500.153641015</v>
-      </c>
-      <c r="AK11">
+      <c r="AW11">
         <v>10958790.58553551</v>
       </c>
-      <c r="AM11">
+      <c r="AY11">
         <v>0.24763674</v>
       </c>
-      <c r="AN11">
+      <c r="AZ11">
+        <v>506625</v>
+      </c>
+      <c r="BA11">
+        <v>18459.96236268759</v>
+      </c>
+      <c r="BB11">
+        <v>16921.12397629493</v>
+      </c>
+      <c r="BC11">
+        <v>35365.14911045639</v>
+      </c>
+      <c r="BD11">
+        <v>11788.3830368188</v>
+      </c>
+      <c r="BE11">
+        <v>0.035</v>
+      </c>
+      <c r="BF11">
         <v>7061.42451918551</v>
       </c>
-      <c r="AO11">
-        <v>16921.12397629493</v>
-      </c>
-      <c r="AP11">
-        <v>35365.14911045639</v>
-      </c>
-      <c r="AQ11">
-        <v>11788.3830368188</v>
-      </c>
-      <c r="AR11">
+      <c r="BG11">
         <v>18849.80755600431</v>
       </c>
-      <c r="AT11">
+      <c r="BI11">
         <v>0.24763674</v>
       </c>
-      <c r="AU11">
+      <c r="BJ11">
         <v>0.5790783106121157</v>
       </c>
-      <c r="AV11">
+      <c r="BK11">
         <v>314944.3469146684</v>
       </c>
-      <c r="AW11">
+      <c r="BL11">
         <v>197623.0709089823</v>
       </c>
-      <c r="AX11">
+      <c r="BM11">
         <v>10958790.58553551</v>
       </c>
-      <c r="AY11">
+      <c r="BN11">
         <v>18849.80755600431</v>
       </c>
-      <c r="AZ11">
+      <c r="BO11">
         <v>10763.6301166011</v>
       </c>
-      <c r="BA11">
+      <c r="BP11">
         <v>57021847.53204653</v>
       </c>
-      <c r="BB11">
+      <c r="BQ11">
         <v>45520876.09101475</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:69">
       <c r="B12">
         <v>0.256343768</v>
       </c>
@@ -2105,112 +2639,157 @@
         <v>26.55469698708</v>
       </c>
       <c r="O12">
+        <v>2.3625</v>
+      </c>
+      <c r="P12">
         <v>116229.1059263875</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>243616.2060217081</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>81205.40200723604</v>
       </c>
-      <c r="R12">
+      <c r="S12">
+        <v>4.163851577607777</v>
+      </c>
+      <c r="T12">
         <v>3300.060567833044</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>280161.3919566594</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>361366.7939638955</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.256343768</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
+        <v>113.565</v>
+      </c>
+      <c r="Z12">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA12">
+        <v>761.8598643844889</v>
+      </c>
+      <c r="AB12">
+        <v>3.7935</v>
+      </c>
+      <c r="AC12">
         <v>295866.8059580557</v>
       </c>
-      <c r="X12">
+      <c r="AD12">
         <v>618361.6244523362</v>
       </c>
-      <c r="Y12">
+      <c r="AE12">
         <v>206120.5414841121</v>
       </c>
-      <c r="Z12">
+      <c r="AF12">
         <v>206120.5414841121</v>
       </c>
-      <c r="AB12">
+      <c r="AH12">
         <v>0.256343768</v>
       </c>
-      <c r="AC12">
+      <c r="AI12">
+        <v>-4.03452279</v>
+      </c>
+      <c r="AJ12">
+        <v>20</v>
+      </c>
+      <c r="AK12">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL12">
         <v>1414266.971719628</v>
       </c>
-      <c r="AD12">
+      <c r="AM12">
         <v>11483.84781036338</v>
       </c>
-      <c r="AF12">
+      <c r="AO12">
         <v>0.256343768</v>
       </c>
-      <c r="AG12">
+      <c r="AP12">
+        <v>172.8188892151697</v>
+      </c>
+      <c r="AQ12">
+        <v>1.75</v>
+      </c>
+      <c r="AR12">
+        <v>8550923.526789557</v>
+      </c>
+      <c r="AS12">
+        <v>17871430.17099017</v>
+      </c>
+      <c r="AT12">
+        <v>5957143.390330058</v>
+      </c>
+      <c r="AU12">
+        <v>3.8</v>
+      </c>
+      <c r="AV12">
         <v>5352200.998993804</v>
       </c>
-      <c r="AH12">
-        <v>8550923.526789557</v>
-      </c>
-      <c r="AI12">
-        <v>17871430.17099017</v>
-      </c>
-      <c r="AJ12">
-        <v>5957143.390330058</v>
-      </c>
-      <c r="AK12">
+      <c r="AW12">
         <v>11309344.38932386</v>
       </c>
-      <c r="AM12">
+      <c r="AY12">
         <v>0.256343768</v>
       </c>
-      <c r="AN12">
+      <c r="AZ12">
+        <v>506625</v>
+      </c>
+      <c r="BA12">
+        <v>19115.03399252952</v>
+      </c>
+      <c r="BB12">
+        <v>17308.47227801257</v>
+      </c>
+      <c r="BC12">
+        <v>36174.70706104628</v>
+      </c>
+      <c r="BD12">
+        <v>12058.23568701543</v>
+      </c>
+      <c r="BE12">
+        <v>0.035</v>
+      </c>
+      <c r="BF12">
         <v>7312.006767291198</v>
       </c>
-      <c r="AO12">
-        <v>17308.47227801257</v>
-      </c>
-      <c r="AP12">
-        <v>36174.70706104628</v>
-      </c>
-      <c r="AQ12">
-        <v>12058.23568701543</v>
-      </c>
-      <c r="AR12">
+      <c r="BG12">
         <v>19370.24245430662</v>
       </c>
-      <c r="AT12">
+      <c r="BI12">
         <v>0.256343768</v>
       </c>
-      <c r="AU12">
+      <c r="BJ12">
         <v>0.5405665395232484</v>
       </c>
-      <c r="AV12">
+      <c r="BK12">
         <v>361366.7939638955</v>
       </c>
-      <c r="AW12">
+      <c r="BL12">
         <v>206120.5414841121</v>
       </c>
-      <c r="AX12">
+      <c r="BM12">
         <v>11309344.38932386</v>
       </c>
-      <c r="AY12">
+      <c r="BN12">
         <v>19370.24245430662</v>
       </c>
-      <c r="AZ12">
+      <c r="BO12">
         <v>11483.84781036338</v>
       </c>
-      <c r="BA12">
+      <c r="BP12">
         <v>54955710.76116522</v>
       </c>
-      <c r="BB12">
+      <c r="BQ12">
         <v>43048024.94612869</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:69">
       <c r="B13">
         <v>0.264242512</v>
       </c>
@@ -2248,112 +2827,157 @@
         <v>27.92127551669</v>
       </c>
       <c r="O13">
+        <v>2.3625</v>
+      </c>
+      <c r="P13">
         <v>127651.4962741004</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>267557.5361905143</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>89185.84539683811</v>
       </c>
-      <c r="R13">
+      <c r="S13">
+        <v>4.840352077858668</v>
+      </c>
+      <c r="T13">
         <v>3836.221039306888</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>325679.1819828243</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>414865.0273796624</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.264242512</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
+        <v>113.565</v>
+      </c>
+      <c r="Z13">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA13">
+        <v>815.0537111090595</v>
+      </c>
+      <c r="AB13">
+        <v>3.7935</v>
+      </c>
+      <c r="AC13">
         <v>309135.215101528</v>
       </c>
-      <c r="X13">
+      <c r="AD13">
         <v>646092.5995621934</v>
       </c>
-      <c r="Y13">
+      <c r="AE13">
         <v>215364.1998540644</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
         <v>215364.1998540644</v>
       </c>
-      <c r="AB13">
+      <c r="AH13">
         <v>0.264242512</v>
       </c>
-      <c r="AC13">
+      <c r="AI13">
+        <v>-4.31621736</v>
+      </c>
+      <c r="AJ13">
+        <v>20</v>
+      </c>
+      <c r="AK13">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL13">
         <v>1513012.560033374</v>
       </c>
-      <c r="AD13">
+      <c r="AM13">
         <v>12285.66198747099</v>
       </c>
-      <c r="AF13">
+      <c r="AO13">
         <v>0.264242512</v>
       </c>
-      <c r="AG13">
+      <c r="AP13">
+        <v>180.2263152625354</v>
+      </c>
+      <c r="AQ13">
+        <v>1.75</v>
+      </c>
+      <c r="AR13">
+        <v>8861473.998872682</v>
+      </c>
+      <c r="AS13">
+        <v>18520480.65764391</v>
+      </c>
+      <c r="AT13">
+        <v>6173493.552547969</v>
+      </c>
+      <c r="AU13">
+        <v>3.8</v>
+      </c>
+      <c r="AV13">
         <v>5581608.98368072</v>
       </c>
-      <c r="AH13">
-        <v>8861473.998872682</v>
-      </c>
-      <c r="AI13">
-        <v>18520480.65764391</v>
-      </c>
-      <c r="AJ13">
-        <v>6173493.552547969</v>
-      </c>
-      <c r="AK13">
+      <c r="AW13">
         <v>11755102.53622869</v>
       </c>
-      <c r="AM13">
+      <c r="AY13">
         <v>0.264242512</v>
       </c>
-      <c r="AN13">
+      <c r="AZ13">
+        <v>506625</v>
+      </c>
+      <c r="BA13">
+        <v>19947.23045643897</v>
+      </c>
+      <c r="BB13">
+        <v>17792.98080310949</v>
+      </c>
+      <c r="BC13">
+        <v>37187.32987849884</v>
+      </c>
+      <c r="BD13">
+        <v>12395.77662616628</v>
+      </c>
+      <c r="BE13">
+        <v>0.035</v>
+      </c>
+      <c r="BF13">
         <v>7630.343955611126</v>
       </c>
-      <c r="AO13">
-        <v>17792.98080310949</v>
-      </c>
-      <c r="AP13">
-        <v>37187.32987849884</v>
-      </c>
-      <c r="AQ13">
-        <v>12395.77662616628</v>
-      </c>
-      <c r="AR13">
+      <c r="BG13">
         <v>20026.12058177741</v>
       </c>
-      <c r="AT13">
+      <c r="BI13">
         <v>0.264242512</v>
       </c>
-      <c r="AU13">
+      <c r="BJ13">
         <v>0.5028164899651608</v>
       </c>
-      <c r="AV13">
+      <c r="BK13">
         <v>414865.0273796624</v>
       </c>
-      <c r="AW13">
+      <c r="BL13">
         <v>215364.1998540644</v>
       </c>
-      <c r="AX13">
+      <c r="BM13">
         <v>11755102.53622869</v>
       </c>
-      <c r="AY13">
+      <c r="BN13">
         <v>20026.12058177741</v>
       </c>
-      <c r="AZ13">
+      <c r="BO13">
         <v>12285.66198747099</v>
       </c>
-      <c r="BA13">
+      <c r="BP13">
         <v>52661713.68605435</v>
       </c>
-      <c r="BB13">
+      <c r="BQ13">
         <v>40244070.1400227</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:69">
       <c r="B14">
         <v>0.27168739</v>
       </c>
@@ -2391,112 +3015,157 @@
         <v>29.3581819532</v>
       </c>
       <c r="O14">
+        <v>2.3625</v>
+      </c>
+      <c r="P14">
         <v>140196.4193643927</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>293851.6949877671</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>97950.56499592238</v>
       </c>
-      <c r="R14">
+      <c r="S14">
+        <v>5.626763525318029</v>
+      </c>
+      <c r="T14">
         <v>4459.491431990805</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>378592.2413617194</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>476542.8063576418</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.27168739</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
+        <v>113.565</v>
+      </c>
+      <c r="Z14">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA14">
+        <v>874.1096289623061</v>
+      </c>
+      <c r="AB14">
+        <v>3.7935</v>
+      </c>
+      <c r="AC14">
         <v>323515.6313127421</v>
       </c>
-      <c r="X14">
+      <c r="AD14">
         <v>676147.669443631</v>
       </c>
-      <c r="Y14">
+      <c r="AE14">
         <v>225382.5564812103</v>
       </c>
-      <c r="Z14">
+      <c r="AF14">
         <v>225382.5564812103</v>
       </c>
-      <c r="AB14">
+      <c r="AH14">
         <v>0.27168739</v>
       </c>
-      <c r="AC14">
+      <c r="AI14">
+        <v>-4.62895525</v>
+      </c>
+      <c r="AJ14">
+        <v>20</v>
+      </c>
+      <c r="AK14">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL14">
         <v>1622640.11492749</v>
       </c>
-      <c r="AD14">
+      <c r="AM14">
         <v>13175.83773321122</v>
       </c>
-      <c r="AF14">
+      <c r="AO14">
         <v>0.27168739</v>
       </c>
-      <c r="AG14">
+      <c r="AP14">
+        <v>189.0714277238539</v>
+      </c>
+      <c r="AQ14">
+        <v>1.75</v>
+      </c>
+      <c r="AR14">
+        <v>9229804.721142583</v>
+      </c>
+      <c r="AS14">
+        <v>19290291.867188</v>
+      </c>
+      <c r="AT14">
+        <v>6430097.289062665</v>
+      </c>
+      <c r="AU14">
+        <v>3.8</v>
+      </c>
+      <c r="AV14">
         <v>5855542.116607756</v>
       </c>
-      <c r="AH14">
-        <v>9229804.721142583</v>
-      </c>
-      <c r="AI14">
-        <v>19290291.867188</v>
-      </c>
-      <c r="AJ14">
-        <v>6430097.289062665</v>
-      </c>
-      <c r="AK14">
+      <c r="AW14">
         <v>12285639.40567042</v>
       </c>
-      <c r="AM14">
+      <c r="AY14">
         <v>0.27168739</v>
       </c>
-      <c r="AN14">
+      <c r="AZ14">
+        <v>506625</v>
+      </c>
+      <c r="BA14">
+        <v>20938.99227331554</v>
+      </c>
+      <c r="BB14">
+        <v>18359.9514369246</v>
+      </c>
+      <c r="BC14">
+        <v>38372.29850317241</v>
+      </c>
+      <c r="BD14">
+        <v>12790.76616772414</v>
+      </c>
+      <c r="BE14">
+        <v>0.035</v>
+      </c>
+      <c r="BF14">
         <v>8009.719117558346</v>
       </c>
-      <c r="AO14">
-        <v>18359.9514369246</v>
-      </c>
-      <c r="AP14">
-        <v>38372.29850317241</v>
-      </c>
-      <c r="AQ14">
-        <v>12790.76616772414</v>
-      </c>
-      <c r="AR14">
+      <c r="BG14">
         <v>20800.48528528248</v>
       </c>
-      <c r="AT14">
+      <c r="BI14">
         <v>0.27168739</v>
       </c>
-      <c r="AU14">
+      <c r="BJ14">
         <v>0.4661269418950754</v>
       </c>
-      <c r="AV14">
+      <c r="BK14">
         <v>476542.8063576418</v>
       </c>
-      <c r="AW14">
+      <c r="BL14">
         <v>225382.5564812103</v>
       </c>
-      <c r="AX14">
+      <c r="BM14">
         <v>12285639.40567042</v>
       </c>
-      <c r="AY14">
+      <c r="BN14">
         <v>20800.48528528248</v>
       </c>
-      <c r="AZ14">
+      <c r="BO14">
         <v>13175.83773321122</v>
       </c>
-      <c r="BA14">
+      <c r="BP14">
         <v>50101000.60686807</v>
       </c>
-      <c r="BB14">
+      <c r="BQ14">
         <v>37079459.5153403</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:69">
       <c r="B15">
         <v>0.278796926</v>
       </c>
@@ -2534,112 +3203,157 @@
         <v>30.86903560052</v>
       </c>
       <c r="O15">
+        <v>2.3625</v>
+      </c>
+      <c r="P15">
         <v>153974.1921618495</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>322729.9067712366</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>107576.6355904122</v>
       </c>
-      <c r="R15">
+      <c r="S15">
+        <v>6.540943158263207</v>
+      </c>
+      <c r="T15">
         <v>5184.024500081507</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>440102.0799548362</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>547678.7155452485</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.278796926</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
+        <v>113.565</v>
+      </c>
+      <c r="Z15">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA15">
+        <v>939.6088809742374</v>
+      </c>
+      <c r="AB15">
+        <v>3.7935</v>
+      </c>
+      <c r="AC15">
         <v>339072.8798990629</v>
       </c>
-      <c r="X15">
+      <c r="AD15">
         <v>708662.3189890415</v>
       </c>
-      <c r="Y15">
+      <c r="AE15">
         <v>236220.7729963472</v>
       </c>
-      <c r="Z15">
+      <c r="AF15">
         <v>236220.7729963472</v>
       </c>
-      <c r="AB15">
+      <c r="AH15">
         <v>0.278796926</v>
       </c>
-      <c r="AC15">
+      <c r="AI15">
+        <v>-4.97581461</v>
+      </c>
+      <c r="AJ15">
+        <v>20</v>
+      </c>
+      <c r="AK15">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL15">
         <v>1744228.655186995</v>
       </c>
-      <c r="AD15">
+      <c r="AM15">
         <v>14163.1366801184</v>
       </c>
-      <c r="AF15">
+      <c r="AO15">
         <v>0.278796926</v>
       </c>
-      <c r="AG15">
+      <c r="AP15">
+        <v>199.3904362457846</v>
+      </c>
+      <c r="AQ15">
+        <v>1.75</v>
+      </c>
+      <c r="AR15">
+        <v>9656264.860703105</v>
+      </c>
+      <c r="AS15">
+        <v>20181593.55886949</v>
+      </c>
+      <c r="AT15">
+        <v>6727197.852956496</v>
+      </c>
+      <c r="AU15">
+        <v>3.8</v>
+      </c>
+      <c r="AV15">
         <v>6175121.810531948</v>
       </c>
-      <c r="AH15">
-        <v>9656264.860703105</v>
-      </c>
-      <c r="AI15">
-        <v>20181593.55886949</v>
-      </c>
-      <c r="AJ15">
-        <v>6727197.852956496</v>
-      </c>
-      <c r="AK15">
+      <c r="AW15">
         <v>12902319.66348844</v>
       </c>
-      <c r="AM15">
+      <c r="AY15">
         <v>0.278796926</v>
       </c>
-      <c r="AN15">
+      <c r="AZ15">
+        <v>506625</v>
+      </c>
+      <c r="BA15">
+        <v>22094.52073914254</v>
+      </c>
+      <c r="BB15">
+        <v>19007.16451527494</v>
+      </c>
+      <c r="BC15">
+        <v>39724.97383692463</v>
+      </c>
+      <c r="BD15">
+        <v>13241.65794564154</v>
+      </c>
+      <c r="BE15">
+        <v>0.035</v>
+      </c>
+      <c r="BF15">
         <v>8451.739360118561</v>
       </c>
-      <c r="AO15">
-        <v>19007.16451527494</v>
-      </c>
-      <c r="AP15">
-        <v>39724.97383692463</v>
-      </c>
-      <c r="AQ15">
-        <v>13241.65794564154</v>
-      </c>
-      <c r="AR15">
+      <c r="BG15">
         <v>21693.3973057601</v>
       </c>
-      <c r="AT15">
+      <c r="BI15">
         <v>0.278796926</v>
       </c>
-      <c r="AU15">
+      <c r="BJ15">
         <v>0.430713531963659</v>
       </c>
-      <c r="AV15">
+      <c r="BK15">
         <v>547678.7155452485</v>
       </c>
-      <c r="AW15">
+      <c r="BL15">
         <v>236220.7729963472</v>
       </c>
-      <c r="AX15">
+      <c r="BM15">
         <v>12902319.66348844</v>
       </c>
-      <c r="AY15">
+      <c r="BN15">
         <v>21693.3973057601</v>
       </c>
-      <c r="AZ15">
+      <c r="BO15">
         <v>14163.1366801184</v>
       </c>
-      <c r="BA15">
+      <c r="BP15">
         <v>47265142.29704852</v>
       </c>
-      <c r="BB15">
+      <c r="BQ15">
         <v>33543066.6110326</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:69">
       <c r="B16">
         <v>0.285722064</v>
       </c>
@@ -2677,112 +3391,157 @@
         <v>32.45764199212</v>
       </c>
       <c r="O16">
+        <v>2.3625</v>
+      </c>
+      <c r="P16">
         <v>169105.9727576303</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>354446.118899993</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>118148.7062999977</v>
       </c>
-      <c r="R16">
+      <c r="S16">
+        <v>7.603649463936109</v>
+      </c>
+      <c r="T16">
         <v>6026.272382642564</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>511605.4158180927</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>629754.1221180904</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.285722064</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
+        <v>113.565</v>
+      </c>
+      <c r="Z16">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA16">
+        <v>1012.142162492439</v>
+      </c>
+      <c r="AB16">
+        <v>3.7935</v>
+      </c>
+      <c r="AC16">
         <v>355864.295983299</v>
       </c>
-      <c r="X16">
+      <c r="AD16">
         <v>743756.378605095</v>
       </c>
-      <c r="Y16">
+      <c r="AE16">
         <v>247918.792868365</v>
       </c>
-      <c r="Z16">
+      <c r="AF16">
         <v>247918.792868365</v>
       </c>
-      <c r="AB16">
+      <c r="AH16">
         <v>0.285722064</v>
       </c>
-      <c r="AC16">
+      <c r="AI16">
+        <v>-5.35992354</v>
+      </c>
+      <c r="AJ16">
+        <v>20</v>
+      </c>
+      <c r="AK16">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL16">
         <v>1878874.709136183</v>
       </c>
-      <c r="AD16">
+      <c r="AM16">
         <v>15256.46263818581</v>
       </c>
-      <c r="AF16">
+      <c r="AO16">
         <v>0.285722064</v>
       </c>
-      <c r="AG16">
+      <c r="AP16">
+        <v>211.1978519841238</v>
+      </c>
+      <c r="AQ16">
+        <v>1.75</v>
+      </c>
+      <c r="AR16">
+        <v>10140201.07118359</v>
+      </c>
+      <c r="AS16">
+        <v>21193020.23877371</v>
+      </c>
+      <c r="AT16">
+        <v>7064340.079591237</v>
+      </c>
+      <c r="AU16">
+        <v>3.8</v>
+      </c>
+      <c r="AV16">
         <v>6540797.475948312</v>
       </c>
-      <c r="AH16">
-        <v>10140201.07118359</v>
-      </c>
-      <c r="AI16">
-        <v>21193020.23877371</v>
-      </c>
-      <c r="AJ16">
-        <v>7064340.079591237</v>
-      </c>
-      <c r="AK16">
+      <c r="AW16">
         <v>13605137.55553955</v>
       </c>
-      <c r="AM16">
+      <c r="AY16">
         <v>0.285722064</v>
       </c>
-      <c r="AN16">
+      <c r="AZ16">
+        <v>506625</v>
+      </c>
+      <c r="BA16">
+        <v>23415.51493534361</v>
+      </c>
+      <c r="BB16">
+        <v>19730.68748582744</v>
+      </c>
+      <c r="BC16">
+        <v>41237.13684537935</v>
+      </c>
+      <c r="BD16">
+        <v>13745.71228179312</v>
+      </c>
+      <c r="BE16">
+        <v>0.035</v>
+      </c>
+      <c r="BF16">
         <v>8957.05462693679</v>
       </c>
-      <c r="AO16">
-        <v>19730.68748582744</v>
-      </c>
-      <c r="AP16">
-        <v>41237.13684537935</v>
-      </c>
-      <c r="AQ16">
-        <v>13745.71228179312</v>
-      </c>
-      <c r="AR16">
+      <c r="BG16">
         <v>22702.76690872991</v>
       </c>
-      <c r="AT16">
+      <c r="BI16">
         <v>0.285722064</v>
       </c>
-      <c r="AU16">
+      <c r="BJ16">
         <v>0.3967666762822606</v>
       </c>
-      <c r="AV16">
+      <c r="BK16">
         <v>629754.1221180904</v>
       </c>
-      <c r="AW16">
+      <c r="BL16">
         <v>247918.792868365</v>
       </c>
-      <c r="AX16">
+      <c r="BM16">
         <v>13605137.55553955</v>
       </c>
-      <c r="AY16">
+      <c r="BN16">
         <v>22702.76690872991</v>
       </c>
-      <c r="AZ16">
+      <c r="BO16">
         <v>15256.46263818581</v>
       </c>
-      <c r="BA16">
+      <c r="BP16">
         <v>44109653.94477019</v>
       </c>
-      <c r="BB16">
+      <c r="BQ16">
         <v>29588884.24469726</v>
       </c>
     </row>
-    <row r="17" spans="2:54">
+    <row r="17" spans="2:69">
       <c r="B17">
         <v>0.292538597</v>
       </c>
@@ -2820,112 +3579,157 @@
         <v>34.1280026356</v>
       </c>
       <c r="O17">
+        <v>2.3625</v>
+      </c>
+      <c r="P17">
         <v>185724.8273641981</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>389279.2381553592</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>129759.7460517864</v>
       </c>
-      <c r="R17">
+      <c r="S17">
+        <v>8.839013661510799</v>
+      </c>
+      <c r="T17">
         <v>7005.360277430385</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>594725.8985526838</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>724485.6446044701</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.292538597</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
+        <v>113.565</v>
+      </c>
+      <c r="Z17">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA17">
+        <v>1092.531478749769</v>
+      </c>
+      <c r="AB17">
+        <v>3.7935</v>
+      </c>
+      <c r="AC17">
         <v>373989.5823206643</v>
       </c>
-      <c r="X17">
+      <c r="AD17">
         <v>781638.2270501883</v>
       </c>
-      <c r="Y17">
+      <c r="AE17">
         <v>260546.0756833961</v>
       </c>
-      <c r="Z17">
+      <c r="AF17">
         <v>260546.0756833961</v>
       </c>
-      <c r="AB17">
+      <c r="AH17">
         <v>0.292538597</v>
       </c>
-      <c r="AC17">
+      <c r="AI17">
+        <v>-5.78563507</v>
+      </c>
+      <c r="AJ17">
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL17">
         <v>2028104.193686753</v>
       </c>
-      <c r="AD17">
+      <c r="AM17">
         <v>16468.20605273643</v>
       </c>
-      <c r="AF17">
+      <c r="AO17">
         <v>0.292538597</v>
       </c>
-      <c r="AG17">
+      <c r="AP17">
+        <v>224.5975166441843</v>
+      </c>
+      <c r="AQ17">
+        <v>1.75</v>
+      </c>
+      <c r="AR17">
+        <v>10684512.26513506</v>
+      </c>
+      <c r="AS17">
+        <v>22330630.63413228</v>
+      </c>
+      <c r="AT17">
+        <v>7443543.544710761</v>
+      </c>
+      <c r="AU17">
+        <v>3.8</v>
+      </c>
+      <c r="AV17">
         <v>6955785.090470389</v>
       </c>
-      <c r="AH17">
-        <v>10684512.26513506</v>
-      </c>
-      <c r="AI17">
-        <v>22330630.63413228</v>
-      </c>
-      <c r="AJ17">
-        <v>7443543.544710761</v>
-      </c>
-      <c r="AK17">
+      <c r="AW17">
         <v>14399328.63518115</v>
       </c>
-      <c r="AM17">
+      <c r="AY17">
         <v>0.292538597</v>
       </c>
-      <c r="AN17">
+      <c r="AZ17">
+        <v>506625</v>
+      </c>
+      <c r="BA17">
+        <v>24913.6406780445</v>
+      </c>
+      <c r="BB17">
+        <v>20531.74494593668</v>
+      </c>
+      <c r="BC17">
+        <v>42911.34693700766</v>
+      </c>
+      <c r="BD17">
+        <v>14303.78231233589</v>
+      </c>
+      <c r="BE17">
+        <v>0.035</v>
+      </c>
+      <c r="BF17">
         <v>9530.1274016524</v>
       </c>
-      <c r="AO17">
-        <v>20531.74494593668</v>
-      </c>
-      <c r="AP17">
-        <v>42911.34693700766</v>
-      </c>
-      <c r="AQ17">
-        <v>14303.78231233589</v>
-      </c>
-      <c r="AR17">
+      <c r="BG17">
         <v>23833.90971398829</v>
       </c>
-      <c r="AT17">
+      <c r="BI17">
         <v>0.292538597</v>
       </c>
-      <c r="AU17">
+      <c r="BJ17">
         <v>0.364400931512346</v>
       </c>
-      <c r="AV17">
+      <c r="BK17">
         <v>724485.6446044701</v>
       </c>
-      <c r="AW17">
+      <c r="BL17">
         <v>260546.0756833961</v>
       </c>
-      <c r="AX17">
+      <c r="BM17">
         <v>14399328.63518115</v>
       </c>
-      <c r="AY17">
+      <c r="BN17">
         <v>23833.90971398829</v>
       </c>
-      <c r="AZ17">
+      <c r="BO17">
         <v>16468.20605273643</v>
       </c>
-      <c r="BA17">
+      <c r="BP17">
         <v>40611655.80628207</v>
       </c>
-      <c r="BB17">
+      <c r="BQ17">
         <v>25186993.33504634</v>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="2:69">
       <c r="B18">
         <v>0.299401836</v>
       </c>
@@ -2963,112 +3767,157 @@
         <v>35.8843242323</v>
       </c>
       <c r="O18">
+        <v>2.3625</v>
+      </c>
+      <c r="P18">
         <v>203976.8916278154</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>427535.564851901</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>142511.8549506337</v>
       </c>
-      <c r="R18">
+      <c r="S18">
+        <v>10.27508696892391</v>
+      </c>
+      <c r="T18">
         <v>8143.520177220646</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>691350.931711961</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>833862.7866625946</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.299401836</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
+        <v>113.565</v>
+      </c>
+      <c r="Z18">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA18">
+        <v>1181.211403714837</v>
+      </c>
+      <c r="AB18">
+        <v>3.7935</v>
+      </c>
+      <c r="AC18">
         <v>393450.7628855656</v>
       </c>
-      <c r="X18">
+      <c r="AD18">
         <v>822312.094430832</v>
       </c>
-      <c r="Y18">
+      <c r="AE18">
         <v>274104.031476944</v>
       </c>
-      <c r="Z18">
+      <c r="AF18">
         <v>274104.031476944</v>
       </c>
-      <c r="AB18">
+      <c r="AH18">
         <v>0.299401836</v>
       </c>
-      <c r="AC18">
+      <c r="AI18">
+        <v>-6.25525054</v>
+      </c>
+      <c r="AJ18">
+        <v>20</v>
+      </c>
+      <c r="AK18">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL18">
         <v>2192723.823615673</v>
       </c>
-      <c r="AD18">
+      <c r="AM18">
         <v>17804.91744775926</v>
       </c>
-      <c r="AF18">
+      <c r="AO18">
         <v>0.299401836</v>
       </c>
-      <c r="AG18">
+      <c r="AP18">
+        <v>239.5835166433593</v>
+      </c>
+      <c r="AQ18">
+        <v>1.75</v>
+      </c>
+      <c r="AR18">
+        <v>11287529.267897</v>
+      </c>
+      <c r="AS18">
+        <v>23590936.16990474</v>
+      </c>
+      <c r="AT18">
+        <v>7863645.389968246</v>
+      </c>
+      <c r="AU18">
+        <v>3.8</v>
+      </c>
+      <c r="AV18">
         <v>7419901.510444837</v>
       </c>
-      <c r="AH18">
-        <v>11287529.267897</v>
-      </c>
-      <c r="AI18">
-        <v>23590936.16990474</v>
-      </c>
-      <c r="AJ18">
-        <v>7863645.389968246</v>
-      </c>
-      <c r="AK18">
+      <c r="AW18">
         <v>15283546.90041308</v>
       </c>
-      <c r="AM18">
+      <c r="AY18">
         <v>0.299401836</v>
       </c>
-      <c r="AN18">
+      <c r="AZ18">
+        <v>506625</v>
+      </c>
+      <c r="BA18">
+        <v>26588.32523581685</v>
+      </c>
+      <c r="BB18">
+        <v>21404.72936150228</v>
+      </c>
+      <c r="BC18">
+        <v>44735.88436553975</v>
+      </c>
+      <c r="BD18">
+        <v>14911.96145517992</v>
+      </c>
+      <c r="BE18">
+        <v>0.035</v>
+      </c>
+      <c r="BF18">
         <v>10170.73859932514</v>
       </c>
-      <c r="AO18">
-        <v>21404.72936150228</v>
-      </c>
-      <c r="AP18">
-        <v>44735.88436553975</v>
-      </c>
-      <c r="AQ18">
-        <v>14911.96145517992</v>
-      </c>
-      <c r="AR18">
+      <c r="BG18">
         <v>25082.70005450506</v>
       </c>
-      <c r="AT18">
+      <c r="BI18">
         <v>0.299401836</v>
       </c>
-      <c r="AU18">
+      <c r="BJ18">
         <v>0.3337854581061467</v>
       </c>
-      <c r="AV18">
+      <c r="BK18">
         <v>833862.7866625946</v>
       </c>
-      <c r="AW18">
+      <c r="BL18">
         <v>274104.031476944</v>
       </c>
-      <c r="AX18">
+      <c r="BM18">
         <v>15283546.90041308</v>
       </c>
-      <c r="AY18">
+      <c r="BN18">
         <v>25082.70005450506</v>
       </c>
-      <c r="AZ18">
+      <c r="BO18">
         <v>17804.91744775926</v>
       </c>
-      <c r="BA18">
+      <c r="BP18">
         <v>36747125.57736921</v>
       </c>
-      <c r="BB18">
+      <c r="BQ18">
         <v>20312724.24131433</v>
       </c>
     </row>
-    <row r="19" spans="2:54">
+    <row r="19" spans="2:69">
       <c r="B19">
         <v>0.306302266</v>
       </c>
@@ -3106,112 +3955,157 @@
         <v>37.7310314732</v>
       </c>
       <c r="O19">
+        <v>2.3625</v>
+      </c>
+      <c r="P19">
         <v>224022.6784510728</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>469551.5340334486</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>156517.1780111495</v>
       </c>
-      <c r="R19">
+      <c r="S19">
+        <v>11.94447934869828</v>
+      </c>
+      <c r="T19">
         <v>9466.597107810825</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>803674.6502985231</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>960191.8283096727</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.306302266</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
+        <v>113.565</v>
+      </c>
+      <c r="Z19">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA19">
+        <v>1279.211187349577</v>
+      </c>
+      <c r="AB19">
+        <v>3.7935</v>
+      </c>
+      <c r="AC19">
         <v>414371.5150730745</v>
       </c>
-      <c r="X19">
+      <c r="AD19">
         <v>866036.4665027256</v>
       </c>
-      <c r="Y19">
+      <c r="AE19">
         <v>288678.8221675752</v>
       </c>
-      <c r="Z19">
+      <c r="AF19">
         <v>288678.8221675752</v>
       </c>
-      <c r="AB19">
+      <c r="AH19">
         <v>0.306302266</v>
       </c>
-      <c r="AC19">
+      <c r="AI19">
+        <v>-6.77422047</v>
+      </c>
+      <c r="AJ19">
+        <v>20</v>
+      </c>
+      <c r="AK19">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL19">
         <v>2374644.231435366</v>
       </c>
-      <c r="AD19">
+      <c r="AM19">
         <v>19282.11115925517</v>
       </c>
-      <c r="AF19">
+      <c r="AO19">
         <v>0.306302266</v>
       </c>
-      <c r="AG19">
+      <c r="AP19">
+        <v>256.3502877525122</v>
+      </c>
+      <c r="AQ19">
+        <v>1.75</v>
+      </c>
+      <c r="AR19">
+        <v>11955540.97738683</v>
+      </c>
+      <c r="AS19">
+        <v>24987080.64273848</v>
+      </c>
+      <c r="AT19">
+        <v>8329026.880912825</v>
+      </c>
+      <c r="AU19">
+        <v>3.8</v>
+      </c>
+      <c r="AV19">
         <v>7939168.411695302</v>
       </c>
-      <c r="AH19">
-        <v>11955540.97738683</v>
-      </c>
-      <c r="AI19">
-        <v>24987080.64273848</v>
-      </c>
-      <c r="AJ19">
-        <v>8329026.880912825</v>
-      </c>
-      <c r="AK19">
+      <c r="AW19">
         <v>16268195.29260813</v>
       </c>
-      <c r="AM19">
+      <c r="AY19">
         <v>0.306302266</v>
       </c>
-      <c r="AN19">
+      <c r="AZ19">
+        <v>506625</v>
+      </c>
+      <c r="BA19">
+        <v>28461.19244316118</v>
+      </c>
+      <c r="BB19">
+        <v>22355.36181689513</v>
+      </c>
+      <c r="BC19">
+        <v>46722.70619731081</v>
+      </c>
+      <c r="BD19">
+        <v>15574.2353991036</v>
+      </c>
+      <c r="BE19">
+        <v>0.035</v>
+      </c>
+      <c r="BF19">
         <v>10887.15990936265</v>
       </c>
-      <c r="AO19">
-        <v>22355.36181689513</v>
-      </c>
-      <c r="AP19">
-        <v>46722.70619731081</v>
-      </c>
-      <c r="AQ19">
-        <v>15574.2353991036</v>
-      </c>
-      <c r="AR19">
+      <c r="BG19">
         <v>26461.39530846625</v>
       </c>
-      <c r="AT19">
+      <c r="BI19">
         <v>0.306302266</v>
       </c>
-      <c r="AU19">
+      <c r="BJ19">
         <v>0.3049406520496182</v>
       </c>
-      <c r="AV19">
+      <c r="BK19">
         <v>960191.8283096727</v>
       </c>
-      <c r="AW19">
+      <c r="BL19">
         <v>288678.8221675752</v>
       </c>
-      <c r="AX19">
+      <c r="BM19">
         <v>16268195.29260813</v>
       </c>
-      <c r="AY19">
+      <c r="BN19">
         <v>26461.39530846625</v>
       </c>
-      <c r="AZ19">
+      <c r="BO19">
         <v>19282.11115925517</v>
       </c>
-      <c r="BA19">
+      <c r="BP19">
         <v>32461279.50843402</v>
       </c>
-      <c r="BB19">
+      <c r="BQ19">
         <v>14898470.05888092</v>
       </c>
     </row>
-    <row r="20" spans="2:54">
+    <row r="20" spans="2:69">
       <c r="B20">
         <v>0.31332178</v>
       </c>
@@ -3249,112 +4143,157 @@
         <v>39.67277517580001</v>
       </c>
       <c r="O20">
+        <v>2.3625</v>
+      </c>
+      <c r="P20">
         <v>246038.458106161</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>515696.6081905135</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>171898.8693968378</v>
       </c>
-      <c r="R20">
+      <c r="S20">
+        <v>13.88509749932969</v>
+      </c>
+      <c r="T20">
         <v>11004.63402309375</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>934247.5759188962</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>1106146.445315734</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.31332178</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
+        <v>113.565</v>
+      </c>
+      <c r="Z20">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA20">
+        <v>1387.254400769064</v>
+      </c>
+      <c r="AB20">
+        <v>3.7935</v>
+      </c>
+      <c r="AC20">
         <v>436796.252610983</v>
       </c>
-      <c r="X20">
+      <c r="AD20">
         <v>912904.1679569543</v>
       </c>
-      <c r="Y20">
+      <c r="AE20">
         <v>304301.3893189848</v>
       </c>
-      <c r="Z20">
+      <c r="AF20">
         <v>304301.3893189848</v>
       </c>
-      <c r="AB20">
+      <c r="AH20">
         <v>0.31332178</v>
       </c>
-      <c r="AC20">
+      <c r="AI20">
+        <v>-7.34637662</v>
+      </c>
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+      <c r="AK20">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL20">
         <v>2575208.607380127</v>
       </c>
-      <c r="AD20">
+      <c r="AM20">
         <v>20910.69389192662</v>
       </c>
-      <c r="AF20">
+      <c r="AO20">
         <v>0.31332178</v>
       </c>
-      <c r="AG20">
+      <c r="AP20">
+        <v>274.9819938563488</v>
+      </c>
+      <c r="AQ20">
+        <v>1.75</v>
+      </c>
+      <c r="AR20">
+        <v>12690218.87296311</v>
+      </c>
+      <c r="AS20">
+        <v>26522557.44449289</v>
+      </c>
+      <c r="AT20">
+        <v>8840852.48149763</v>
+      </c>
+      <c r="AU20">
+        <v>3.8</v>
+      </c>
+      <c r="AV20">
         <v>8516192.349731121</v>
       </c>
-      <c r="AH20">
-        <v>12690218.87296311</v>
-      </c>
-      <c r="AI20">
-        <v>26522557.44449289</v>
-      </c>
-      <c r="AJ20">
-        <v>8840852.48149763</v>
-      </c>
-      <c r="AK20">
+      <c r="AW20">
         <v>17357044.83122875</v>
       </c>
-      <c r="AM20">
+      <c r="AY20">
         <v>0.31332178</v>
       </c>
-      <c r="AN20">
+      <c r="AZ20">
+        <v>506625</v>
+      </c>
+      <c r="BA20">
+        <v>30541.65402461693</v>
+      </c>
+      <c r="BB20">
+        <v>23382.48151005999</v>
+      </c>
+      <c r="BC20">
+        <v>48869.38635602538</v>
+      </c>
+      <c r="BD20">
+        <v>16289.79545200846</v>
+      </c>
+      <c r="BE20">
+        <v>0.035</v>
+      </c>
+      <c r="BF20">
         <v>11682.9915656725</v>
       </c>
-      <c r="AO20">
-        <v>23382.48151005999</v>
-      </c>
-      <c r="AP20">
-        <v>48869.38635602538</v>
-      </c>
-      <c r="AQ20">
-        <v>16289.79545200846</v>
-      </c>
-      <c r="AR20">
+      <c r="BG20">
         <v>27972.78701768096</v>
       </c>
-      <c r="AT20">
+      <c r="BI20">
         <v>0.31332178</v>
       </c>
-      <c r="AU20">
+      <c r="BJ20">
         <v>0.2779020173402046</v>
       </c>
-      <c r="AV20">
+      <c r="BK20">
         <v>1106146.445315734</v>
       </c>
-      <c r="AW20">
+      <c r="BL20">
         <v>304301.3893189848</v>
       </c>
-      <c r="AX20">
+      <c r="BM20">
         <v>17357044.83122875</v>
       </c>
-      <c r="AY20">
+      <c r="BN20">
         <v>27972.78701768096</v>
       </c>
-      <c r="AZ20">
+      <c r="BO20">
         <v>20910.69389192662</v>
       </c>
-      <c r="BA20">
+      <c r="BP20">
         <v>27723991.42117572</v>
       </c>
-      <c r="BB20">
+      <c r="BQ20">
         <v>8907615.274402646</v>
       </c>
     </row>
-    <row r="21" spans="2:54">
+    <row r="21" spans="2:69">
       <c r="B21">
         <v>0.320452482</v>
       </c>
@@ -3392,112 +4331,157 @@
         <v>41.7144466549</v>
       </c>
       <c r="O21">
+        <v>2.3625</v>
+      </c>
+      <c r="P21">
         <v>270217.8367227649</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>566376.5857709153</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>188792.1952569718</v>
       </c>
-      <c r="R21">
+      <c r="S21">
+        <v>16.14100794341082</v>
+      </c>
+      <c r="T21">
         <v>12792.55584555025</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>1086034.688971193</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>1274826.884228165</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.320452482</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
+        <v>113.565</v>
+      </c>
+      <c r="Z21">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA21">
+        <v>1506.409550882197</v>
+      </c>
+      <c r="AB21">
+        <v>3.7935</v>
+      </c>
+      <c r="AC21">
         <v>460829.6572327827</v>
       </c>
-      <c r="X21">
+      <c r="AD21">
         <v>963133.9836165158</v>
       </c>
-      <c r="Y21">
+      <c r="AE21">
         <v>321044.6612055053</v>
       </c>
-      <c r="Z21">
+      <c r="AF21">
         <v>321044.6612055053</v>
       </c>
-      <c r="AB21">
+      <c r="AH21">
         <v>0.320452482</v>
       </c>
-      <c r="AC21">
+      <c r="AI21">
+        <v>-7.9773774</v>
+      </c>
+      <c r="AJ21">
+        <v>20</v>
+      </c>
+      <c r="AK21">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL21">
         <v>2796400.457998802</v>
       </c>
-      <c r="AD21">
+      <c r="AM21">
         <v>22706.77171895027</v>
       </c>
-      <c r="AF21">
+      <c r="AO21">
         <v>0.320452482</v>
       </c>
-      <c r="AG21">
+      <c r="AP21">
+        <v>295.702580291146</v>
+      </c>
+      <c r="AQ21">
+        <v>1.75</v>
+      </c>
+      <c r="AR21">
+        <v>13498556.89877028</v>
+      </c>
+      <c r="AS21">
+        <v>28211983.91842989</v>
+      </c>
+      <c r="AT21">
+        <v>9403994.639476627</v>
+      </c>
+      <c r="AU21">
+        <v>3.8</v>
+      </c>
+      <c r="AV21">
         <v>9157908.911616791</v>
       </c>
-      <c r="AH21">
-        <v>13498556.89877028</v>
-      </c>
-      <c r="AI21">
-        <v>28211983.91842989</v>
-      </c>
-      <c r="AJ21">
-        <v>9403994.639476627</v>
-      </c>
-      <c r="AK21">
+      <c r="AW21">
         <v>18561903.55109342</v>
       </c>
-      <c r="AM21">
+      <c r="AY21">
         <v>0.320452482</v>
       </c>
-      <c r="AN21">
+      <c r="AZ21">
+        <v>506625</v>
+      </c>
+      <c r="BA21">
+        <v>32854.61369076285</v>
+      </c>
+      <c r="BB21">
+        <v>24492.0565706699</v>
+      </c>
+      <c r="BC21">
+        <v>51188.39823270008</v>
+      </c>
+      <c r="BD21">
+        <v>17062.79941090003</v>
+      </c>
+      <c r="BE21">
+        <v>0.035</v>
+      </c>
+      <c r="BF21">
         <v>12567.75989713035</v>
       </c>
-      <c r="AO21">
-        <v>24492.0565706699</v>
-      </c>
-      <c r="AP21">
-        <v>51188.39823270008</v>
-      </c>
-      <c r="AQ21">
-        <v>17062.79941090003</v>
-      </c>
-      <c r="AR21">
+      <c r="BG21">
         <v>29630.55930803038</v>
       </c>
-      <c r="AT21">
+      <c r="BI21">
         <v>0.320452482</v>
       </c>
-      <c r="AU21">
+      <c r="BJ21">
         <v>0.252725469602755</v>
       </c>
-      <c r="AV21">
+      <c r="BK21">
         <v>1274826.884228165</v>
       </c>
-      <c r="AW21">
+      <c r="BL21">
         <v>321044.6612055053</v>
       </c>
-      <c r="AX21">
+      <c r="BM21">
         <v>18561903.55109342</v>
       </c>
-      <c r="AY21">
+      <c r="BN21">
         <v>29630.55930803038</v>
       </c>
-      <c r="AZ21">
+      <c r="BO21">
         <v>22706.77171895027</v>
       </c>
-      <c r="BA21">
+      <c r="BP21">
         <v>22491956.67395849</v>
       </c>
-      <c r="BB21">
+      <c r="BQ21">
         <v>2281844.246404422</v>
       </c>
     </row>
-    <row r="22" spans="2:54">
+    <row r="22" spans="2:69">
       <c r="B22">
         <v>0.327804205</v>
       </c>
@@ -3535,112 +4519,157 @@
         <v>43.8611878937</v>
       </c>
       <c r="O22">
+        <v>2.3625</v>
+      </c>
+      <c r="P22">
         <v>296773.4344825518</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>622037.1186754287</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>207345.7062251429</v>
       </c>
-      <c r="R22">
+      <c r="S22">
+        <v>18.76343550267693</v>
+      </c>
+      <c r="T22">
         <v>14870.9608076466</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>1262482.610232498</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>1469828.316457641</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.327804205</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>113.565</v>
+      </c>
+      <c r="Z22">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA22">
+        <v>1637.290374706046</v>
+      </c>
+      <c r="AB22">
+        <v>3.7935</v>
+      </c>
+      <c r="AC22">
         <v>486473.4490729263</v>
       </c>
-      <c r="X22">
+      <c r="AD22">
         <v>1016729.508562416</v>
       </c>
-      <c r="Y22">
+      <c r="AE22">
         <v>338909.836187472</v>
       </c>
-      <c r="Z22">
+      <c r="AF22">
         <v>338909.836187472</v>
       </c>
-      <c r="AB22">
+      <c r="AH22">
         <v>0.327804205</v>
       </c>
-      <c r="AC22">
+      <c r="AI22">
+        <v>-8.670472930000001</v>
+      </c>
+      <c r="AJ22">
+        <v>20</v>
+      </c>
+      <c r="AK22">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL22">
         <v>3039359.08466838</v>
       </c>
-      <c r="AD22">
+      <c r="AM22">
         <v>24679.59576750724</v>
       </c>
-      <c r="AF22">
+      <c r="AO22">
         <v>0.327804205</v>
       </c>
-      <c r="AG22">
+      <c r="AP22">
+        <v>318.5568993170217</v>
+      </c>
+      <c r="AQ22">
+        <v>1.75</v>
+      </c>
+      <c r="AR22">
+        <v>14380350.04113377</v>
+      </c>
+      <c r="AS22">
+        <v>30054931.58596958</v>
+      </c>
+      <c r="AT22">
+        <v>10018310.52865653</v>
+      </c>
+      <c r="AU22">
+        <v>3.8</v>
+      </c>
+      <c r="AV22">
         <v>9865707.171848163</v>
       </c>
-      <c r="AH22">
-        <v>14380350.04113377</v>
-      </c>
-      <c r="AI22">
-        <v>30054931.58596958</v>
-      </c>
-      <c r="AJ22">
-        <v>10018310.52865653</v>
-      </c>
-      <c r="AK22">
+      <c r="AW22">
         <v>19884017.70050469</v>
       </c>
-      <c r="AM22">
+      <c r="AY22">
         <v>0.327804205</v>
       </c>
-      <c r="AN22">
+      <c r="AZ22">
+        <v>506625</v>
+      </c>
+      <c r="BA22">
+        <v>35405.13271709374</v>
+      </c>
+      <c r="BB22">
+        <v>25679.95536616051</v>
+      </c>
+      <c r="BC22">
+        <v>53671.10671527547</v>
+      </c>
+      <c r="BD22">
+        <v>17890.36890509182</v>
+      </c>
+      <c r="BE22">
+        <v>0.035</v>
+      </c>
+      <c r="BF22">
         <v>13543.40097566178</v>
       </c>
-      <c r="AO22">
-        <v>25679.95536616051</v>
-      </c>
-      <c r="AP22">
-        <v>53671.10671527547</v>
-      </c>
-      <c r="AQ22">
-        <v>17890.36890509182</v>
-      </c>
-      <c r="AR22">
+      <c r="BG22">
         <v>31433.7698807536</v>
       </c>
-      <c r="AT22">
+      <c r="BI22">
         <v>0.327804205</v>
       </c>
-      <c r="AU22">
+      <c r="BJ22">
         <v>0.2293646576004829</v>
       </c>
-      <c r="AV22">
+      <c r="BK22">
         <v>1469828.316457641</v>
       </c>
-      <c r="AW22">
+      <c r="BL22">
         <v>338909.836187472</v>
       </c>
-      <c r="AX22">
+      <c r="BM22">
         <v>19884017.70050469</v>
       </c>
-      <c r="AY22">
+      <c r="BN22">
         <v>31433.7698807536</v>
       </c>
-      <c r="AZ22">
+      <c r="BO22">
         <v>24679.59576750724</v>
       </c>
-      <c r="BA22">
+      <c r="BP22">
         <v>16729626.02602784</v>
       </c>
-      <c r="BB22">
+      <c r="BQ22">
         <v>-5019243.192770225</v>
       </c>
     </row>
-    <row r="23" spans="2:54">
+    <row r="23" spans="2:69">
       <c r="B23">
         <v>0.335323349</v>
       </c>
@@ -3678,112 +4707,157 @@
         <v>46.1184066364</v>
       </c>
       <c r="O23">
+        <v>2.3625</v>
+      </c>
+      <c r="P23">
         <v>325938.7808653085</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>683167.6846936865</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>227722.5615645622</v>
       </c>
-      <c r="R23">
+      <c r="S23">
+        <v>21.81192888236924</v>
+      </c>
+      <c r="T23">
         <v>17287.04423572174</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>1467598.026261794</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>1695320.587826356</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.335323349</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>113.565</v>
+      </c>
+      <c r="Z23">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA23">
+        <v>1781.227437068238</v>
+      </c>
+      <c r="AB23">
+        <v>3.7935</v>
+      </c>
+      <c r="AC23">
         <v>513860.2525555532</v>
       </c>
-      <c r="X23">
+      <c r="AD23">
         <v>1073967.927841106</v>
       </c>
-      <c r="Y23">
+      <c r="AE23">
         <v>357989.3092803687</v>
       </c>
-      <c r="Z23">
+      <c r="AF23">
         <v>357989.3092803687</v>
       </c>
-      <c r="AB23">
+      <c r="AH23">
         <v>0.335323349</v>
       </c>
-      <c r="AC23">
+      <c r="AI23">
+        <v>-9.43270938</v>
+      </c>
+      <c r="AJ23">
+        <v>20</v>
+      </c>
+      <c r="AK23">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL23">
         <v>3306554.461169356</v>
       </c>
-      <c r="AD23">
+      <c r="AM23">
         <v>26849.22222469517</v>
       </c>
-      <c r="AF23">
+      <c r="AO23">
         <v>0.335323349</v>
       </c>
-      <c r="AG23">
+      <c r="AP23">
+        <v>343.8379228711784</v>
+      </c>
+      <c r="AQ23">
+        <v>1.75</v>
+      </c>
+      <c r="AR23">
+        <v>15344798.95807548</v>
+      </c>
+      <c r="AS23">
+        <v>32070629.82237775</v>
+      </c>
+      <c r="AT23">
+        <v>10690209.94079258</v>
+      </c>
+      <c r="AU23">
+        <v>3.8</v>
+      </c>
+      <c r="AV23">
         <v>10648660.47132039</v>
       </c>
-      <c r="AH23">
-        <v>15344798.95807548</v>
-      </c>
-      <c r="AI23">
-        <v>32070629.82237775</v>
-      </c>
-      <c r="AJ23">
-        <v>10690209.94079258</v>
-      </c>
-      <c r="AK23">
+      <c r="AW23">
         <v>21338870.41211297</v>
       </c>
-      <c r="AM23">
+      <c r="AY23">
         <v>0.335323349</v>
       </c>
-      <c r="AN23">
+      <c r="AZ23">
+        <v>506625</v>
+      </c>
+      <c r="BA23">
+        <v>38225.66277466583</v>
+      </c>
+      <c r="BB23">
+        <v>26954.41642032458</v>
+      </c>
+      <c r="BC23">
+        <v>56334.73031847837</v>
+      </c>
+      <c r="BD23">
+        <v>18778.24343949279</v>
+      </c>
+      <c r="BE23">
+        <v>0.035</v>
+      </c>
+      <c r="BF23">
         <v>14622.32842493419</v>
       </c>
-      <c r="AO23">
-        <v>26954.41642032458</v>
-      </c>
-      <c r="AP23">
-        <v>56334.73031847837</v>
-      </c>
-      <c r="AQ23">
-        <v>18778.24343949279</v>
-      </c>
-      <c r="AR23">
+      <c r="BG23">
         <v>33400.57186442698</v>
       </c>
-      <c r="AT23">
+      <c r="BI23">
         <v>0.335323349</v>
       </c>
-      <c r="AU23">
+      <c r="BJ23">
         <v>0.2077623601135371</v>
       </c>
-      <c r="AV23">
+      <c r="BK23">
         <v>1695320.587826356</v>
       </c>
-      <c r="AW23">
+      <c r="BL23">
         <v>357989.3092803687</v>
       </c>
-      <c r="AX23">
+      <c r="BM23">
         <v>21338870.41211297</v>
       </c>
-      <c r="AY23">
+      <c r="BN23">
         <v>33400.57186442698</v>
       </c>
-      <c r="AZ23">
+      <c r="BO23">
         <v>26849.22222469517</v>
       </c>
-      <c r="BA23">
+      <c r="BP23">
         <v>10372135.91693353</v>
       </c>
-      <c r="BB23">
+      <c r="BQ23">
         <v>-13080294.18637529</v>
       </c>
     </row>
-    <row r="24" spans="2:54">
+    <row r="24" spans="2:69">
       <c r="B24">
         <v>0.343062644</v>
       </c>
@@ -3821,112 +4895,157 @@
         <v>48.49178787170001</v>
       </c>
       <c r="O24">
+        <v>2.3625</v>
+      </c>
+      <c r="P24">
         <v>357970.3418556583</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>750305.8365294598</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>250101.9455098199</v>
       </c>
-      <c r="R24">
+      <c r="S24">
+        <v>25.35571024606866</v>
+      </c>
+      <c r="T24">
         <v>20095.66815552171</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>1706038.494453145</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>1956140.439962965</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.343062644</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
+        <v>113.565</v>
+      </c>
+      <c r="Z24">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA24">
+        <v>1939.007906886383</v>
+      </c>
+      <c r="AB24">
+        <v>3.7935</v>
+      </c>
+      <c r="AC24">
         <v>543005.4125326267</v>
       </c>
-      <c r="X24">
+      <c r="AD24">
         <v>1134881.31219319</v>
       </c>
-      <c r="Y24">
+      <c r="AE24">
         <v>378293.7707310632</v>
       </c>
-      <c r="Z24">
+      <c r="AF24">
         <v>378293.7707310632</v>
       </c>
-      <c r="AB24">
+      <c r="AH24">
         <v>0.343062644</v>
       </c>
-      <c r="AC24">
+      <c r="AI24">
+        <v>-10.2682553</v>
+      </c>
+      <c r="AJ24">
+        <v>20</v>
+      </c>
+      <c r="AK24">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL24">
         <v>3599447.836549469</v>
       </c>
-      <c r="AD24">
+      <c r="AM24">
         <v>29227.51643278169</v>
       </c>
-      <c r="AF24">
+      <c r="AO24">
         <v>0.343062644</v>
       </c>
-      <c r="AG24">
+      <c r="AP24">
+        <v>371.6969500891584</v>
+      </c>
+      <c r="AQ24">
+        <v>1.75</v>
+      </c>
+      <c r="AR24">
+        <v>16395366.99444771</v>
+      </c>
+      <c r="AS24">
+        <v>34266317.01839572</v>
+      </c>
+      <c r="AT24">
+        <v>11422105.67279857</v>
+      </c>
+      <c r="AU24">
+        <v>3.8</v>
+      </c>
+      <c r="AV24">
         <v>11511454.54426124</v>
       </c>
-      <c r="AH24">
-        <v>16395366.99444771</v>
-      </c>
-      <c r="AI24">
-        <v>34266317.01839572</v>
-      </c>
-      <c r="AJ24">
-        <v>11422105.67279857</v>
-      </c>
-      <c r="AK24">
+      <c r="AW24">
         <v>22933560.21705981</v>
       </c>
-      <c r="AM24">
+      <c r="AY24">
         <v>0.343062644</v>
       </c>
-      <c r="AN24">
+      <c r="AZ24">
+        <v>506625</v>
+      </c>
+      <c r="BA24">
+        <v>41333.07755918257</v>
+      </c>
+      <c r="BB24">
+        <v>28315.69202498245</v>
+      </c>
+      <c r="BC24">
+        <v>59179.79633221331</v>
+      </c>
+      <c r="BD24">
+        <v>19726.59877740444</v>
+      </c>
+      <c r="BE24">
+        <v>0.035</v>
+      </c>
+      <c r="BF24">
         <v>15810.99688045706</v>
       </c>
-      <c r="AO24">
-        <v>28315.69202498245</v>
-      </c>
-      <c r="AP24">
-        <v>59179.79633221331</v>
-      </c>
-      <c r="AQ24">
-        <v>19726.59877740444</v>
-      </c>
-      <c r="AR24">
+      <c r="BG24">
         <v>35537.59565786149</v>
       </c>
-      <c r="AT24">
+      <c r="BI24">
         <v>0.343062644</v>
       </c>
-      <c r="AU24">
+      <c r="BJ24">
         <v>0.1878869400924503</v>
       </c>
-      <c r="AV24">
+      <c r="BK24">
         <v>1956140.439962965</v>
       </c>
-      <c r="AW24">
+      <c r="BL24">
         <v>378293.7707310632</v>
       </c>
-      <c r="AX24">
+      <c r="BM24">
         <v>22933560.21705981</v>
       </c>
-      <c r="AY24">
+      <c r="BN24">
         <v>35537.59565786149</v>
       </c>
-      <c r="AZ24">
+      <c r="BO24">
         <v>29227.51643278169</v>
       </c>
-      <c r="BA24">
+      <c r="BP24">
         <v>3377680.502841166</v>
       </c>
-      <c r="BB24">
+      <c r="BQ24">
         <v>-21955079.03700332</v>
       </c>
     </row>
-    <row r="25" spans="2:54">
+    <row r="25" spans="2:69">
       <c r="B25">
         <v>0.351005043</v>
       </c>
@@ -3964,112 +5083,157 @@
         <v>50.9873102378</v>
       </c>
       <c r="O25">
+        <v>2.3625</v>
+      </c>
+      <c r="P25">
         <v>393149.8023078427</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>824041.9856372384</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>274680.6618790794</v>
       </c>
-      <c r="R25">
+      <c r="S25">
+        <v>29.47524992171904</v>
+      </c>
+      <c r="T25">
         <v>23360.60932545842</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>1983218.395859231</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>2257899.05773831</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.351005043</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
+        <v>113.565</v>
+      </c>
+      <c r="Z25">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA25">
+        <v>2112.041742854013</v>
+      </c>
+      <c r="AB25">
+        <v>3.7935</v>
+      </c>
+      <c r="AC25">
         <v>574029.2924949913</v>
       </c>
-      <c r="X25">
+      <c r="AD25">
         <v>1199721.221314532</v>
       </c>
-      <c r="Y25">
+      <c r="AE25">
         <v>399907.0737715106</v>
       </c>
-      <c r="Z25">
+      <c r="AF25">
         <v>399907.0737715106</v>
       </c>
-      <c r="AB25">
+      <c r="AH25">
         <v>0.351005043</v>
       </c>
-      <c r="AC25">
+      <c r="AI25">
+        <v>-11.1845773</v>
+      </c>
+      <c r="AJ25">
+        <v>20</v>
+      </c>
+      <c r="AK25">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL25">
         <v>3920656.566184647</v>
       </c>
-      <c r="AD25">
+      <c r="AM25">
         <v>31835.73131741933</v>
       </c>
-      <c r="AF25">
+      <c r="AO25">
         <v>0.351005043</v>
       </c>
-      <c r="AG25">
+      <c r="AP25">
+        <v>402.4280553711152</v>
+      </c>
+      <c r="AQ25">
+        <v>1.75</v>
+      </c>
+      <c r="AR25">
+        <v>17540642.89588816</v>
+      </c>
+      <c r="AS25">
+        <v>36659943.65240626</v>
+      </c>
+      <c r="AT25">
+        <v>12219981.21746875</v>
+      </c>
+      <c r="AU25">
+        <v>3.8</v>
+      </c>
+      <c r="AV25">
         <v>12463196.87484344</v>
       </c>
-      <c r="AH25">
-        <v>17540642.89588816</v>
-      </c>
-      <c r="AI25">
-        <v>36659943.65240626</v>
-      </c>
-      <c r="AJ25">
-        <v>12219981.21746875</v>
-      </c>
-      <c r="AK25">
+      <c r="AW25">
         <v>24683178.09231219</v>
       </c>
-      <c r="AM25">
+      <c r="AY25">
         <v>0.351005043</v>
       </c>
-      <c r="AN25">
+      <c r="AZ25">
+        <v>506625</v>
+      </c>
+      <c r="BA25">
+        <v>44760.019234926</v>
+      </c>
+      <c r="BB25">
+        <v>29770.29263316465</v>
+      </c>
+      <c r="BC25">
+        <v>62219.91160331412</v>
+      </c>
+      <c r="BD25">
+        <v>20739.97053443804</v>
+      </c>
+      <c r="BE25">
+        <v>0.035</v>
+      </c>
+      <c r="BF25">
         <v>17121.89283460191</v>
       </c>
-      <c r="AO25">
-        <v>29770.29263316465</v>
-      </c>
-      <c r="AP25">
-        <v>62219.91160331412</v>
-      </c>
-      <c r="AQ25">
-        <v>20739.97053443804</v>
-      </c>
-      <c r="AR25">
+      <c r="BG25">
         <v>37861.86336903994</v>
       </c>
-      <c r="AT25">
+      <c r="BI25">
         <v>0.351005043</v>
       </c>
-      <c r="AU25">
+      <c r="BJ25">
         <v>0.1696455389157744</v>
       </c>
-      <c r="AV25">
+      <c r="BK25">
         <v>2257899.05773831</v>
       </c>
-      <c r="AW25">
+      <c r="BL25">
         <v>399907.0737715106</v>
       </c>
-      <c r="AX25">
+      <c r="BM25">
         <v>24683178.09231219</v>
       </c>
-      <c r="AY25">
+      <c r="BN25">
         <v>37861.86336903994</v>
       </c>
-      <c r="AZ25">
+      <c r="BO25">
         <v>31835.73131741933</v>
       </c>
-      <c r="BA25">
+      <c r="BP25">
         <v>-4316534.481933591</v>
       </c>
-      <c r="BB25">
+      <c r="BQ25">
         <v>-31727216.30044206</v>
       </c>
     </row>
-    <row r="26" spans="2:54">
+    <row r="26" spans="2:69">
       <c r="B26">
         <v>0.359139393</v>
       </c>
@@ -4107,112 +5271,157 @@
         <v>53.6112588183</v>
       </c>
       <c r="O26">
+        <v>2.3625</v>
+      </c>
+      <c r="P26">
         <v>431786.5121804187</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>905024.5295301577</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>301674.8431767192</v>
       </c>
-      <c r="R26">
+      <c r="S26">
+        <v>34.26409019285296</v>
+      </c>
+      <c r="T26">
         <v>27156.00468234562</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>2305431.647511634</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>2607106.490688353</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.359139393</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
+        <v>113.565</v>
+      </c>
+      <c r="Z26">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA26">
+        <v>2301.558530182654</v>
+      </c>
+      <c r="AB26">
+        <v>3.7935</v>
+      </c>
+      <c r="AC26">
         <v>607004.2711330963</v>
       </c>
-      <c r="X26">
+      <c r="AD26">
         <v>1268638.926668171</v>
       </c>
-      <c r="Y26">
+      <c r="AE26">
         <v>422879.6422227237</v>
       </c>
-      <c r="Z26">
+      <c r="AF26">
         <v>422879.6422227237</v>
       </c>
-      <c r="AB26">
+      <c r="AH26">
         <v>0.359139393</v>
       </c>
-      <c r="AC26">
+      <c r="AI26">
+        <v>-12.1881868</v>
+      </c>
+      <c r="AJ26">
+        <v>20</v>
+      </c>
+      <c r="AK26">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL26">
         <v>4272463.171880893</v>
       </c>
-      <c r="AD26">
+      <c r="AM26">
         <v>34692.40095567285</v>
       </c>
-      <c r="AF26">
+      <c r="AO26">
         <v>0.359139393</v>
       </c>
-      <c r="AG26">
+      <c r="AP26">
+        <v>436.3241915462584</v>
+      </c>
+      <c r="AQ26">
+        <v>1.75</v>
+      </c>
+      <c r="AR26">
+        <v>18788771.86516113</v>
+      </c>
+      <c r="AS26">
+        <v>39268533.19818676</v>
+      </c>
+      <c r="AT26">
+        <v>13089511.06606225</v>
+      </c>
+      <c r="AU26">
+        <v>3.8</v>
+      </c>
+      <c r="AV26">
         <v>13512960.21218762</v>
       </c>
-      <c r="AH26">
-        <v>18788771.86516113</v>
-      </c>
-      <c r="AI26">
-        <v>39268533.19818676</v>
-      </c>
-      <c r="AJ26">
-        <v>13089511.06606225</v>
-      </c>
-      <c r="AK26">
+      <c r="AW26">
         <v>26602471.27824987</v>
       </c>
-      <c r="AM26">
+      <c r="AY26">
         <v>0.359139393</v>
       </c>
-      <c r="AN26">
+      <c r="AZ26">
+        <v>506625</v>
+      </c>
+      <c r="BA26">
+        <v>48538.99174892676</v>
+      </c>
+      <c r="BB26">
+        <v>31323.57201774116</v>
+      </c>
+      <c r="BC26">
+        <v>65466.26551707902</v>
+      </c>
+      <c r="BD26">
+        <v>21822.08850569301</v>
+      </c>
+      <c r="BE26">
+        <v>0.035</v>
+      </c>
+      <c r="BF26">
         <v>18567.4499079809</v>
       </c>
-      <c r="AO26">
-        <v>31323.57201774116</v>
-      </c>
-      <c r="AP26">
-        <v>65466.26551707902</v>
-      </c>
-      <c r="AQ26">
-        <v>21822.08850569301</v>
-      </c>
-      <c r="AR26">
+      <c r="BG26">
         <v>40389.53841367391</v>
       </c>
-      <c r="AT26">
+      <c r="BI26">
         <v>0.359139393</v>
       </c>
-      <c r="AU26">
+      <c r="BJ26">
         <v>0.152955347787483</v>
       </c>
-      <c r="AV26">
+      <c r="BK26">
         <v>2607106.490688353</v>
       </c>
-      <c r="AW26">
+      <c r="BL26">
         <v>422879.6422227237</v>
       </c>
-      <c r="AX26">
+      <c r="BM26">
         <v>26602471.27824987</v>
       </c>
-      <c r="AY26">
+      <c r="BN26">
         <v>40389.53841367391</v>
       </c>
-      <c r="AZ26">
+      <c r="BO26">
         <v>34692.40095567285</v>
       </c>
-      <c r="BA26">
+      <c r="BP26">
         <v>-12772386.80934592</v>
       </c>
-      <c r="BB26">
+      <c r="BQ26">
         <v>-42479926.15987621</v>
       </c>
     </row>
-    <row r="27" spans="2:54">
+    <row r="27" spans="2:69">
       <c r="B27">
         <v>0.367538596</v>
       </c>
@@ -4250,112 +5459,157 @@
         <v>56.3702431877</v>
       </c>
       <c r="O27">
+        <v>2.3625</v>
+      </c>
+      <c r="P27">
         <v>474220.2378686485</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>993965.6185726873</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>331321.8728575624</v>
       </c>
-      <c r="R27">
+      <c r="S27">
+        <v>39.83097298962805</v>
+      </c>
+      <c r="T27">
         <v>31568.03764292972</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>2679994.862394554</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>3011316.735252116</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.367538596</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
+        <v>113.565</v>
+      </c>
+      <c r="Z27">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA27">
+        <v>2508.370883331327</v>
+      </c>
+      <c r="AB27">
+        <v>3.7935</v>
+      </c>
+      <c r="AC27">
         <v>641921.7184270298</v>
       </c>
-      <c r="X27">
+      <c r="AD27">
         <v>1341616.391512492</v>
       </c>
-      <c r="Y27">
+      <c r="AE27">
         <v>447205.4638374974</v>
       </c>
-      <c r="Z27">
+      <c r="AF27">
         <v>447205.4638374974</v>
       </c>
-      <c r="AB27">
+      <c r="AH27">
         <v>0.367538596</v>
       </c>
-      <c r="AC27">
+      <c r="AI27">
+        <v>-13.2833871</v>
+      </c>
+      <c r="AJ27">
+        <v>20</v>
+      </c>
+      <c r="AK27">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL27">
         <v>4656376.138129729</v>
       </c>
-      <c r="AD27">
+      <c r="AM27">
         <v>37809.7742416134</v>
       </c>
-      <c r="AF27">
+      <c r="AO27">
         <v>0.367538596</v>
       </c>
-      <c r="AG27">
+      <c r="AP27">
+        <v>473.5434397227744</v>
+      </c>
+      <c r="AQ27">
+        <v>1.75</v>
+      </c>
+      <c r="AR27">
+        <v>20142637.88373566</v>
+      </c>
+      <c r="AS27">
+        <v>42098113.17700753</v>
+      </c>
+      <c r="AT27">
+        <v>14032704.39233584</v>
+      </c>
+      <c r="AU27">
+        <v>3.8</v>
+      </c>
+      <c r="AV27">
         <v>14665640.32821432</v>
       </c>
-      <c r="AH27">
-        <v>20142637.88373566</v>
-      </c>
-      <c r="AI27">
-        <v>42098113.17700753</v>
-      </c>
-      <c r="AJ27">
-        <v>14032704.39233584</v>
-      </c>
-      <c r="AK27">
+      <c r="AW27">
         <v>28698344.72055016</v>
       </c>
-      <c r="AM27">
+      <c r="AY27">
         <v>0.367538596</v>
       </c>
-      <c r="AN27">
+      <c r="AZ27">
+        <v>506625</v>
+      </c>
+      <c r="BA27">
+        <v>52687.48911362804</v>
+      </c>
+      <c r="BB27">
+        <v>32974.01834782762</v>
+      </c>
+      <c r="BC27">
+        <v>68915.69834695973</v>
+      </c>
+      <c r="BD27">
+        <v>22971.89944898658</v>
+      </c>
+      <c r="BE27">
+        <v>0.035</v>
+      </c>
+      <c r="BF27">
         <v>20154.36002368566</v>
       </c>
-      <c r="AO27">
-        <v>32974.01834782762</v>
-      </c>
-      <c r="AP27">
-        <v>68915.69834695973</v>
-      </c>
-      <c r="AQ27">
-        <v>22971.89944898658</v>
-      </c>
-      <c r="AR27">
+      <c r="BG27">
         <v>43126.25947267224</v>
       </c>
-      <c r="AT27">
+      <c r="BI27">
         <v>0.367538596</v>
       </c>
-      <c r="AU27">
+      <c r="BJ27">
         <v>0.1377456343779574</v>
       </c>
-      <c r="AV27">
+      <c r="BK27">
         <v>3011316.735252116</v>
       </c>
-      <c r="AW27">
+      <c r="BL27">
         <v>447205.4638374974</v>
       </c>
-      <c r="AX27">
+      <c r="BM27">
         <v>28698344.72055016</v>
       </c>
-      <c r="AY27">
+      <c r="BN27">
         <v>43126.25947267224</v>
       </c>
-      <c r="AZ27">
+      <c r="BO27">
         <v>37809.7742416134</v>
       </c>
-      <c r="BA27">
+      <c r="BP27">
         <v>-22034674.67990158</v>
       </c>
-      <c r="BB27">
+      <c r="BQ27">
         <v>-54272477.63325564</v>
       </c>
     </row>
-    <row r="28" spans="2:54">
+    <row r="28" spans="2:69">
       <c r="B28">
         <v>0.376124474</v>
       </c>
@@ -4393,112 +5647,157 @@
         <v>59.27121283210001</v>
       </c>
       <c r="O28">
+        <v>2.3625</v>
+      </c>
+      <c r="P28">
         <v>520824.1331938134</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1091647.383174233</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>363882.4610580776</v>
       </c>
-      <c r="R28">
+      <c r="S28">
+        <v>46.30230723194689</v>
+      </c>
+      <c r="T28">
         <v>36696.89359667952</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>3115413.362634772</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>3479295.82369285</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.376124474</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>113.565</v>
+      </c>
+      <c r="Z28">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA28">
+        <v>2734.428147932566</v>
+      </c>
+      <c r="AB28">
+        <v>3.7935</v>
+      </c>
+      <c r="AC28">
         <v>678954.493437008</v>
       </c>
-      <c r="X28">
+      <c r="AD28">
         <v>1419014.891283347</v>
       </c>
-      <c r="Y28">
+      <c r="AE28">
         <v>473004.9637611155</v>
       </c>
-      <c r="Z28">
+      <c r="AF28">
         <v>473004.9637611155</v>
       </c>
-      <c r="AB28">
+      <c r="AH28">
         <v>0.376124474</v>
       </c>
-      <c r="AC28">
+      <c r="AI28">
+        <v>-14.4805012</v>
+      </c>
+      <c r="AJ28">
+        <v>20</v>
+      </c>
+      <c r="AK28">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL28">
         <v>5076014.103047476</v>
       </c>
-      <c r="AD28">
+      <c r="AM28">
         <v>41217.2345167455</v>
       </c>
-      <c r="AF28">
+      <c r="AO28">
         <v>0.376124474</v>
       </c>
-      <c r="AG28">
+      <c r="AP28">
+        <v>514.5793832438112</v>
+      </c>
+      <c r="AQ28">
+        <v>1.75</v>
+      </c>
+      <c r="AR28">
+        <v>21616979.92463459</v>
+      </c>
+      <c r="AS28">
+        <v>45179488.0424863</v>
+      </c>
+      <c r="AT28">
+        <v>15059829.34749543</v>
+      </c>
+      <c r="AU28">
+        <v>3.8</v>
+      </c>
+      <c r="AV28">
         <v>15936523.49906083</v>
       </c>
-      <c r="AH28">
-        <v>21616979.92463459</v>
-      </c>
-      <c r="AI28">
-        <v>45179488.0424863</v>
-      </c>
-      <c r="AJ28">
-        <v>15059829.34749543</v>
-      </c>
-      <c r="AK28">
+      <c r="AW28">
         <v>30996352.84655626</v>
       </c>
-      <c r="AM28">
+      <c r="AY28">
         <v>0.376124474</v>
       </c>
-      <c r="AN28">
+      <c r="AZ28">
+        <v>506625</v>
+      </c>
+      <c r="BA28">
+        <v>57260.28138319008</v>
+      </c>
+      <c r="BB28">
+        <v>34734.11770250577</v>
+      </c>
+      <c r="BC28">
+        <v>72594.30599823705</v>
+      </c>
+      <c r="BD28">
+        <v>24198.10199941235</v>
+      </c>
+      <c r="BE28">
+        <v>0.035</v>
+      </c>
+      <c r="BF28">
         <v>21903.57417802732</v>
       </c>
-      <c r="AO28">
-        <v>34734.11770250577</v>
-      </c>
-      <c r="AP28">
-        <v>72594.30599823705</v>
-      </c>
-      <c r="AQ28">
-        <v>24198.10199941235</v>
-      </c>
-      <c r="AR28">
+      <c r="BG28">
         <v>46101.67617743967</v>
       </c>
-      <c r="AT28">
+      <c r="BI28">
         <v>0.376124474</v>
       </c>
-      <c r="AU28">
+      <c r="BJ28">
         <v>0.1238987108685589</v>
       </c>
-      <c r="AV28">
+      <c r="BK28">
         <v>3479295.82369285</v>
       </c>
-      <c r="AW28">
+      <c r="BL28">
         <v>473004.9637611155</v>
       </c>
-      <c r="AX28">
+      <c r="BM28">
         <v>30996352.84655626</v>
       </c>
-      <c r="AY28">
+      <c r="BN28">
         <v>46101.67617743967</v>
       </c>
-      <c r="AZ28">
+      <c r="BO28">
         <v>41217.2345167455</v>
       </c>
-      <c r="BA28">
+      <c r="BP28">
         <v>-32204390.22845928</v>
       </c>
-      <c r="BB28">
+      <c r="BQ28">
         <v>-67240362.77316369</v>
       </c>
     </row>
-    <row r="29" spans="2:54">
+    <row r="29" spans="2:69">
       <c r="B29">
         <v>0.384924773</v>
       </c>
@@ -4536,112 +5835,157 @@
         <v>62.3214742104</v>
       </c>
       <c r="O29">
+        <v>2.3625</v>
+      </c>
+      <c r="P29">
         <v>572008.0125311896</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1198928.794265373</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>399642.9314217911</v>
       </c>
-      <c r="R29">
+      <c r="S29">
+        <v>53.82503788661731</v>
+      </c>
+      <c r="T29">
         <v>42659.03377703855</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>3621574.221696502</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>4021217.153118293</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.384924773</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
+        <v>113.565</v>
+      </c>
+      <c r="Z29">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA29">
+        <v>2980.881840955003</v>
+      </c>
+      <c r="AB29">
+        <v>3.7935</v>
+      </c>
+      <c r="AC29">
         <v>718127.4478837922</v>
       </c>
-      <c r="X29">
+      <c r="AD29">
         <v>1500886.366077126</v>
       </c>
-      <c r="Y29">
+      <c r="AE29">
         <v>500295.4553590418</v>
       </c>
-      <c r="Z29">
+      <c r="AF29">
         <v>500295.4553590418</v>
       </c>
-      <c r="AB29">
+      <c r="AH29">
         <v>0.384924773</v>
       </c>
-      <c r="AC29">
+      <c r="AI29">
+        <v>-15.7856271</v>
+      </c>
+      <c r="AJ29">
+        <v>20</v>
+      </c>
+      <c r="AK29">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL29">
         <v>5533514.66764482</v>
       </c>
-      <c r="AD29">
+      <c r="AM29">
         <v>44932.13910127593</v>
       </c>
-      <c r="AF29">
+      <c r="AO29">
         <v>0.384924773</v>
       </c>
-      <c r="AG29">
+      <c r="AP29">
+        <v>559.7348940342096</v>
+      </c>
+      <c r="AQ29">
+        <v>1.75</v>
+      </c>
+      <c r="AR29">
+        <v>23219107.32536796</v>
+      </c>
+      <c r="AS29">
+        <v>48527934.31001905</v>
+      </c>
+      <c r="AT29">
+        <v>16175978.10333968</v>
+      </c>
+      <c r="AU29">
+        <v>3.8</v>
+      </c>
+      <c r="AV29">
         <v>17334989.66823947</v>
       </c>
-      <c r="AH29">
-        <v>23219107.32536796</v>
-      </c>
-      <c r="AI29">
-        <v>48527934.31001905</v>
-      </c>
-      <c r="AJ29">
-        <v>16175978.10333968</v>
-      </c>
-      <c r="AK29">
+      <c r="AW29">
         <v>33510967.77157915</v>
       </c>
-      <c r="AM29">
+      <c r="AY29">
         <v>0.384924773</v>
       </c>
-      <c r="AN29">
+      <c r="AZ29">
+        <v>506625</v>
+      </c>
+      <c r="BA29">
+        <v>62290.93756146051</v>
+      </c>
+      <c r="BB29">
+        <v>36606.67439433559</v>
+      </c>
+      <c r="BC29">
+        <v>76507.94948416138</v>
+      </c>
+      <c r="BD29">
+        <v>25502.64982805379</v>
+      </c>
+      <c r="BE29">
+        <v>0.035</v>
+      </c>
+      <c r="BF29">
         <v>23827.93340405875</v>
       </c>
-      <c r="AO29">
-        <v>36606.67439433559</v>
-      </c>
-      <c r="AP29">
-        <v>76507.94948416138</v>
-      </c>
-      <c r="AQ29">
-        <v>25502.64982805379</v>
-      </c>
-      <c r="AR29">
+      <c r="BG29">
         <v>49330.58323211254</v>
       </c>
-      <c r="AT29">
+      <c r="BI29">
         <v>0.384924773</v>
       </c>
-      <c r="AU29">
+      <c r="BJ29">
         <v>0.1113296913088351</v>
       </c>
-      <c r="AV29">
+      <c r="BK29">
         <v>4021217.153118293</v>
       </c>
-      <c r="AW29">
+      <c r="BL29">
         <v>500295.4553590418</v>
       </c>
-      <c r="AX29">
+      <c r="BM29">
         <v>33510967.77157915</v>
       </c>
-      <c r="AY29">
+      <c r="BN29">
         <v>49330.58323211254</v>
       </c>
-      <c r="AZ29">
+      <c r="BO29">
         <v>44932.13910127593</v>
       </c>
-      <c r="BA29">
+      <c r="BP29">
         <v>-43333693.08863184</v>
       </c>
-      <c r="BB29">
+      <c r="BQ29">
         <v>-81460436.19102173</v>
       </c>
     </row>
-    <row r="30" spans="2:54">
+    <row r="30" spans="2:69">
       <c r="B30">
         <v>0.393932046</v>
       </c>
@@ -4679,112 +6023,157 @@
         <v>65.5287104403</v>
       </c>
       <c r="O30">
+        <v>2.3625</v>
+      </c>
+      <c r="P30">
         <v>628221.9751678659</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1316753.259951847</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>438917.7533172823</v>
       </c>
-      <c r="R30">
+      <c r="S30">
+        <v>62.56998552157003</v>
+      </c>
+      <c r="T30">
         <v>49589.84202512034</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>4209970.963590945</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>4648888.716908228</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.393932046</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
+        <v>113.565</v>
+      </c>
+      <c r="Z30">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA30">
+        <v>3248.854323214439</v>
+      </c>
+      <c r="AB30">
+        <v>3.7935</v>
+      </c>
+      <c r="AC30">
         <v>759455.071134768</v>
       </c>
-      <c r="X30">
+      <c r="AD30">
         <v>1587261.098671665</v>
       </c>
-      <c r="Y30">
+      <c r="AE30">
         <v>529087.032890555</v>
       </c>
-      <c r="Z30">
+      <c r="AF30">
         <v>529087.032890555</v>
       </c>
-      <c r="AB30">
+      <c r="AH30">
         <v>0.393932046</v>
       </c>
-      <c r="AC30">
+      <c r="AI30">
+        <v>-17.2047084</v>
+      </c>
+      <c r="AJ30">
+        <v>20</v>
+      </c>
+      <c r="AK30">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL30">
         <v>6030961.309351598</v>
       </c>
-      <c r="AD30">
+      <c r="AM30">
         <v>48971.40583193497</v>
       </c>
-      <c r="AF30">
+      <c r="AO30">
         <v>0.393932046</v>
       </c>
-      <c r="AG30">
+      <c r="AP30">
+        <v>609.3824175860343</v>
+      </c>
+      <c r="AQ30">
+        <v>1.75</v>
+      </c>
+      <c r="AR30">
+        <v>24958410.64560979</v>
+      </c>
+      <c r="AS30">
+        <v>52163078.24932446</v>
+      </c>
+      <c r="AT30">
+        <v>17387692.74977482</v>
+      </c>
+      <c r="AU30">
+        <v>3.8</v>
+      </c>
+      <c r="AV30">
         <v>18872573.47263948</v>
       </c>
-      <c r="AH30">
-        <v>24958410.64560979</v>
-      </c>
-      <c r="AI30">
-        <v>52163078.24932446</v>
-      </c>
-      <c r="AJ30">
-        <v>17387692.74977482</v>
-      </c>
-      <c r="AK30">
+      <c r="AW30">
         <v>36260266.2224143</v>
       </c>
-      <c r="AM30">
+      <c r="AY30">
         <v>0.393932046</v>
       </c>
-      <c r="AN30">
+      <c r="AZ30">
+        <v>506625</v>
+      </c>
+      <c r="BA30">
+        <v>67820.66835112145</v>
+      </c>
+      <c r="BB30">
+        <v>38596.48141450658</v>
+      </c>
+      <c r="BC30">
+        <v>80666.64615631875</v>
+      </c>
+      <c r="BD30">
+        <v>26888.88205210625</v>
+      </c>
+      <c r="BE30">
+        <v>0.035</v>
+      </c>
+      <c r="BF30">
         <v>25943.20188702883</v>
       </c>
-      <c r="AO30">
-        <v>38596.48141450658</v>
-      </c>
-      <c r="AP30">
-        <v>80666.64615631875</v>
-      </c>
-      <c r="AQ30">
-        <v>26888.88205210625</v>
-      </c>
-      <c r="AR30">
+      <c r="BG30">
         <v>52832.08393913507</v>
       </c>
-      <c r="AT30">
+      <c r="BI30">
         <v>0.393932046</v>
       </c>
-      <c r="AU30">
+      <c r="BJ30">
         <v>0.09994992108016315</v>
       </c>
-      <c r="AV30">
+      <c r="BK30">
         <v>4648888.716908228</v>
       </c>
-      <c r="AW30">
+      <c r="BL30">
         <v>529087.032890555</v>
       </c>
-      <c r="AX30">
+      <c r="BM30">
         <v>36260266.2224143</v>
       </c>
-      <c r="AY30">
+      <c r="BN30">
         <v>52832.08393913507</v>
       </c>
-      <c r="AZ30">
+      <c r="BO30">
         <v>48971.40583193497</v>
       </c>
-      <c r="BA30">
+      <c r="BP30">
         <v>-55499585.77481155</v>
       </c>
-      <c r="BB30">
+      <c r="BQ30">
         <v>-97039631.23679571</v>
       </c>
     </row>
-    <row r="31" spans="2:54">
+    <row r="31" spans="2:69">
       <c r="B31">
         <v>0.403172996</v>
       </c>
@@ -4822,108 +6211,153 @@
         <v>68.901</v>
       </c>
       <c r="O31">
+        <v>2.3625</v>
+      </c>
+      <c r="P31">
         <v>689960.3534994929</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1446156.900934937</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>482052.3003116457</v>
       </c>
-      <c r="R31">
+      <c r="S31">
+        <v>72.73572391223769</v>
+      </c>
+      <c r="T31">
         <v>57646.69798664399</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>4893964.464491131</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>5376016.764802776</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.403172996</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
+        <v>113.565</v>
+      </c>
+      <c r="Z31">
+        <v>501.9335919096649</v>
+      </c>
+      <c r="AA31">
+        <v>3540.430807260253</v>
+      </c>
+      <c r="AB31">
+        <v>3.7935</v>
+      </c>
+      <c r="AC31">
         <v>803089.4186141581</v>
       </c>
-      <c r="X31">
+      <c r="AD31">
         <v>1678456.88490359</v>
       </c>
-      <c r="Y31">
+      <c r="AE31">
         <v>559485.6283011967</v>
       </c>
-      <c r="Z31">
+      <c r="AF31">
         <v>559485.6283011967</v>
       </c>
-      <c r="AB31">
+      <c r="AH31">
         <v>0.403172996</v>
       </c>
-      <c r="AC31">
+      <c r="AI31">
+        <v>-18.7487876</v>
+      </c>
+      <c r="AJ31">
+        <v>20</v>
+      </c>
+      <c r="AK31">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL31">
         <v>6572224.880768743</v>
       </c>
-      <c r="AD31">
+      <c r="AM31">
         <v>53366.4660318422</v>
       </c>
-      <c r="AF31">
+      <c r="AO31">
         <v>0.403172996</v>
       </c>
-      <c r="AG31">
+      <c r="AP31">
+        <v>663.9840158783328</v>
+      </c>
+      <c r="AQ31">
+        <v>1.75</v>
+      </c>
+      <c r="AR31">
+        <v>26846920.41881694</v>
+      </c>
+      <c r="AS31">
+        <v>56110063.67532739</v>
+      </c>
+      <c r="AT31">
+        <v>18703354.55844246</v>
+      </c>
+      <c r="AU31">
+        <v>3.8</v>
+      </c>
+      <c r="AV31">
         <v>20563584.97175197</v>
       </c>
-      <c r="AH31">
-        <v>26846920.41881694</v>
-      </c>
-      <c r="AI31">
-        <v>56110063.67532739</v>
-      </c>
-      <c r="AJ31">
-        <v>18703354.55844246</v>
-      </c>
-      <c r="AK31">
+      <c r="AW31">
         <v>39266939.53019443</v>
       </c>
-      <c r="AM31">
+      <c r="AY31">
         <v>0.403172996</v>
       </c>
-      <c r="AN31">
+      <c r="AZ31">
+        <v>506625</v>
+      </c>
+      <c r="BA31">
+        <v>73900.69478270243</v>
+      </c>
+      <c r="BB31">
+        <v>40710.77900677918</v>
+      </c>
+      <c r="BC31">
+        <v>85085.52812416849</v>
+      </c>
+      <c r="BD31">
+        <v>28361.84270805616</v>
+      </c>
+      <c r="BE31">
+        <v>0.035</v>
+      </c>
+      <c r="BF31">
         <v>28268.97302771338</v>
       </c>
-      <c r="AO31">
-        <v>40710.77900677918</v>
-      </c>
-      <c r="AP31">
-        <v>85085.52812416849</v>
-      </c>
-      <c r="AQ31">
-        <v>28361.84270805616</v>
-      </c>
-      <c r="AR31">
+      <c r="BG31">
         <v>56630.81573576955</v>
       </c>
-      <c r="AT31">
+      <c r="BI31">
         <v>0.403172996</v>
       </c>
-      <c r="AU31">
+      <c r="BJ31">
         <v>0.08965536118418969</v>
       </c>
-      <c r="AV31">
+      <c r="BK31">
         <v>5376016.764802776</v>
       </c>
-      <c r="AW31">
+      <c r="BL31">
         <v>559485.6283011967</v>
       </c>
-      <c r="AX31">
+      <c r="BM31">
         <v>39266939.53019443</v>
       </c>
-      <c r="AY31">
+      <c r="BN31">
         <v>56630.81573576955</v>
       </c>
-      <c r="AZ31">
+      <c r="BO31">
         <v>53366.4660318422</v>
       </c>
-      <c r="BA31">
+      <c r="BP31">
         <v>-68796147.27944335</v>
       </c>
-      <c r="BB31">
+      <c r="BQ31">
         <v>-114108586.4845094</v>
       </c>
     </row>
